--- a/data/hotels_by_city/Dallas/Dallas_shard_342.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_342.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>rrdriever</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Ashley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r565784625-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>We stayed here for a few days while visiting family.  The hotel was very clean, friendly, updated. The beds were so comfortable we slept so well. They offer free breakfast with an assortment of cereal, oatmeal,breads, pancakes, juice,coffee etc. The staff was very friendly and very helpful. It’s in a little strip area so there are different restaurants, stores and gas stations around. Would definitely recommend staying here. More</t>
   </si>
   <si>
+    <t>Marsha Jean A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r574795363-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>My friend and I rented an executive suite for an overnight stay while shopping Antique Alley. After hours of trumping through pastures looking for treasures, we drug our tired bones to this hotel. The staff is very friendly and helpful. The suite was more than adequate for two "dirty" women to kick our shoes off, take hot showers and relax. There is a sweet shop, guest laundry, fitness center, indoor pool and free hot breakfast.  The price was quite reasonable ($125 when every room in the area was booked due to Antique Alley and a softball tourney). It was also very clean and easy to find.More</t>
   </si>
   <si>
+    <t>Lucas-Knob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r573812073-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>On Check-in Amber was very helpful.  Breakfast items were as expected at Holiday Inn Express.  Always love the bacon and cinnamon rolls.  Hotel sits very close to I-35 and an on-ramp so noise is an issue.  Ask for room away which helps some.  Only fast-food and gas stations close by.More</t>
   </si>
   <si>
+    <t>Mary Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r566309421-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>Located conveniently just off I-35 and U.S. 67 in Alvarado, this Holiday Inn Express is easy to find. We have stayed here several times. +Prices are usually cheaper than other nearby Holiday Inn Expresses. +It is kept clean. Staff members are friendly and helpful. +There are several fast food restaurants nearby. -The breakfast room can be quite crowded and food may not be replenished.-The side of the hotel nearest the interstate highway is very noisy since it is quite close to the interstate.-The water tastes bad and has a musty odor. It is, apparently, softened, as it takes a lot of rinsing to shower the soap residue off.More</t>
   </si>
   <si>
+    <t>Elton F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r551360906-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>My family and I were travelling to Dallas from Austin late for a State Fair weekend and to take in the Cowboys v Packers game and this was the perfect stop for us at the 3/4 mark to getting to our final destination. The staff were courteous, even when arriving around 10pm to check in. They also provided a super Continental Breakfast!  The room was clean and smelled fresh.  It was a phenomenal stay! More</t>
   </si>
   <si>
+    <t>keithhX6086NL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r545967135-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>When working in this area, this is my only choice for overnight stays. The staff is courteous, the facility is clean &amp; comfortable with plentiful parking. There is a selection or restaurants within walking distance and a few more across the street no more than ¼ mile from the hotels front door. I like this for multiple night stays so I can eat at different locations.More</t>
   </si>
   <si>
+    <t>dpw_12RT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r517545272-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>Excellent mid-priced hotel option if you are traveling the I-35W corridor.  Very convenient access plus good location with several eating options nearby...who can argue with a Waffle House breakfast!  Staff was friendly &amp; helpful.  Rooms were nicely appointed, clean with wifi included.  Would definitely stay again.More</t>
   </si>
   <si>
+    <t>Sarah J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r508500563-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>Hotel was about 20 minutes from our destination and was a super easy drive!  The amount that it saved us was well worth the extra couple of minutes of driving.  The hotel is very nice and is kept clean.  We did have a couple of housekeeping issues, but the front desk an GM were great at taking care of them.  The breakfast was fresh each morning and the coffee was perfect!  We will stay here again the next time we are in the area for a tournament.More</t>
   </si>
   <si>
+    <t>Douglas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r502327264-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>Stayed here from Sunday through Thursday while doing some training at MillerCoors in Fort Worth. The hotel was a bargain and the room was nice and well furnished. My only negative thing to say is that the room had a musty/mildew smell that caught my attention upon walking into my room. The smell remained all week. The free breakfast was good and they seemed to have fresh coffee every time I went to get a cup. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Dwayne G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r438295095-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>I am usually pretty loyal with Holiday inn express. Last night when I walked in the room, I immediately was hit with a stench of mold/mildew. I thought maybe I was exaggerating so I ask the other two people with me if they smell anything and both said the same thing. I called down to the desk and they told me to just turn the ac on &amp; it will go away. Really? That's the cure? Needless to say I was very disappointed in their response. More</t>
   </si>
   <si>
+    <t>jvc2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r429308902-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>Well managed and lots of smiles with all the management team, great to stay if your going to the drag races in Ennis as well.The beds and room was very clean and vending machine on each floor. Going up  35W and going directly to Alvarado exit is very simple and stress free.More</t>
   </si>
   <si>
+    <t>Josephine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r428750434-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -492,6 +531,9 @@
     <t>The hotel is exactly what we needed, too tired to travel further we stopped here. The hotel was clean, beds we so soft and comfy, and the kids loved the pool! Breakfast was great, plenty to choose from, I was glad we stopped and left refreshed. More</t>
   </si>
   <si>
+    <t>Dixie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r426952696-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -540,6 +582,9 @@
     <t>I usually stay at a different hotel when I come to visit family. However this time I stayed here. The indoor pool and spa are great. The staff are very friendly and the room I stayed in was fantastic. Loved my stay. More</t>
   </si>
   <si>
+    <t>Geri L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r420324663-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -570,6 +615,9 @@
     <t>I highly recommend the Holiday Inn Express in Alvarado Texas. Stayed 3 nights with my little dog. I appreciate that they like to put people with pets on the first floor for easy access to outdoor walks. Plus plenty of open areas around the building to let my dog run. Employees all very friendly and helpful. My king room was quiet and cool and dark and clean. What more can you ask for! I'll stay there again when I go visit family. More</t>
   </si>
   <si>
+    <t>Terry W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r419974152-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -594,6 +642,9 @@
     <t>Stayed here while enjoying the annual Antique Alley tour.  Extremely nice staff and rooms were good.  Excellent free breakfast.  One suggestion... ask for a room on the East side of the hotel, away from I35, to avoid traffic noise.  The noise did not bother us but it might bother some.  Highly recommend the hotel.More</t>
   </si>
   <si>
+    <t>KBullard68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r404729595-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -619,6 +670,9 @@
   </si>
   <si>
     <t>Great room and great service...we stopped and reserved a room on my birthday evening instead of driving back home late at night. Our room was very clean, and a good size, quiet room with King bed and a sofa bed. We will stay again next time we are passing through.More</t>
+  </si>
+  <si>
+    <t>margrbrdb</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r395815489-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -650,6 +704,9 @@
 He was horrible to us, I am an 80 year old woman and he made me leave at that time of night.  He also illegally withheld $25.00 deposit (which I verified with my bank) on a previous stay. He told me 2 times he released it to my account, so he lied.  There are other things I do not want to talk about going on with him, because I am going to talk to my attorney.  Think twice before staying at this hotel, it all boils down to:  He was upset with us because we called the corporate...AT 9:30 PM last night this JERK  (Scott Sisk) called the police on me and my son for NO reason and had a Criminal Trespass Warning on us. I have never in my 80 years had a charge place on me.  I think I have had 2 speeding tickets in my 80 years. This all started earlier that morning because someone did not know how to handle our payment earlier that morning.  I told him he had an attitude and he told me I had 15 minutes to vacate and he was calling the police.  I caught him coming out of our room 2 times, while in the process of loading the car and he took some of our things.  He told me I could not go back in to get rest of my things and the police told me I could.He was horrible to us, I am an 80 year old woman and he made me leave at that time of night.  He also illegally withheld $25.00 deposit (which I verified with my bank) on a previous stay. He told me 2 times he released it to my account, so he lied.  There are other things I do not want to talk about going on with him, because I am going to talk to my attorney.  Think twice before staying at this hotel, it all boils down to:  He was upset with us because we called the corporate office on him, because of the way he treated us.More</t>
   </si>
   <si>
+    <t>Nicolette A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r394069772-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -674,6 +731,9 @@
     <t>We recently stayed here for a week and it was great! Our family of four enjoyed our time in the hotel, the breakfast each morning and swimming in the indoor pool. The grounds and facilities were well maintained. The staff was amazing, especially Brian at the front desk and Melissa in housekeeping. Brian took the time to answer a lot of questions my husband had as we are in the midst of settling in the area. Melissa was always so sweet and helpful, always with a smile on her face. She was the sunshine in our mornings! We would definitely stay here again!More</t>
   </si>
   <si>
+    <t>breezyww</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r392154280-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -692,6 +752,9 @@
     <t>We enjoyed this location, it was right off the Hwy and there are a lot of fast food places to eat within walking distance.  The rooms were clean, linens good and the beds were comfortable.  The front desk people were all nice and helpful.  We really liked the Direct TV cable on the TV, it's nice to have the guide like at home.  We used the pool and hot tub, our only complaint was too much chlorine.  The fitness room was even well equipped.  It was hard to find anything to complain about this location and the rate was good, we will stay here again.More</t>
   </si>
   <si>
+    <t>Karen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r390395435-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -716,6 +779,9 @@
     <t>CLEAN!!!, modern, big rooms. Beds are comfortable. Breakfast has great selection. Pool and hot tub. Well light parking. Family and kid friendly. Open areas to sit and visit inside hotel. Lobby even has ice cold water with fruit slices, cups and ice for guests along with coffee, cocoa, and hot tea 24/7. Someone always on staff at front desk. Staff makes the experience even better. They are friendly and very accommodating. Someone is constantly working in the background cleaning to keep things fresh and welcoming. Wi-Fi has good speed. Extra towels no problem, toiletries no problem, extra pillows or blankets no problem. We have stayed here visiting family and friends 4 times and have always enjoyed the experience.More</t>
   </si>
   <si>
+    <t>Luis R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r382139979-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -743,6 +809,9 @@
     <t>First i would like to give some kudos to that breakfast pancake machine they have that shoots out a warm fluffy pancake on command. Their rooms are big and comfortable and it is one of the rare times that their bed doesn't feel like a downgrade from my bed (which is awesome) rooms are clean blah, blah, blah. Service is great blah, blah, blah. Pool is relatively small, but is indoor which is good depending on weather and whatnot. You can hear the highway a little bit from the hotel, but it isn't that loud that it keeps you awake at night. If you are looking for a well priced and comfortable place to stay. Well you found it. If you are looking for something more upscale with grand a view, you will be disappointed. This place is perfect for budget vacations, shorts stays and the penny pinchers. Had a good time staying here. More</t>
   </si>
   <si>
+    <t>Jim Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r372152205-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -764,6 +833,9 @@
     <t>This is one, if not the best, Holiday Inn Express I have stayed at.  As soon as I walked into the lobby, I had a warm welcome from the front desk staff, I believe her name was Sandy.  Check in was a breeze!  The rooms are clean and comfortable, I slept like I was at home. The whole property is very clean and well maintained.  Great Job!More</t>
   </si>
   <si>
+    <t>TXtraveler897</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r371513011-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -788,6 +860,9 @@
     <t>Stayed at this property for two weeks on business and again one more week in the last few months.  Kudos to the GM on the staff - they are excellent.  Everyone from the front desk personnel to housekeeping and the breakfast lady are very well trained and will go that extra mile to meet your requests. While this is an older property with worn spots here and there, it is very clean.  Plenty of hot water for showers. Ben and linens very comfortable.  Check-in and out efficient. Probably better for family and personal use than business but was told there are plants to make it more "business friendly".  Wi-Fi is spotty, no wired connection in room.  Eating table (no desk) is very small with chairs unsuited for working - but was provided a rolling chair when I requested one. Only one washer and dryer in hotel for guest use. Request a room away from traffic as rooms facing I-35 hear non-stop very loud traffic noise.  More</t>
   </si>
   <si>
+    <t>Patricia P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r369371187-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -815,6 +890,9 @@
     <t>First impression told us we were going to like this hotel.  The lobby was immaculate, reception was very friendly.  Our room was very clean and accommodating for me as I am handicapped.  Breakfasts were really good with a nice variety.  All of the staff were very friendly and everyone was so helpful to me.  Our intentions were to stay one day and move on to other places in the area but we returned for four more nights. Location was very convenient, close to restaurants in a nice quiet area.More</t>
   </si>
   <si>
+    <t>DWp1888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r352228255-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -869,6 +947,9 @@
     <t>The rooms were extremely clean and spacious.  The inn door pool was fairly large and clean.  We stayed in two different rooms one on the highway side and one on the front side during the week.  Ask for the front side rooms as they are much quieter.  The free morning breakfast was one of the best I've had in a motel of this class.More</t>
   </si>
   <si>
+    <t>Gary M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r328710335-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -896,6 +977,9 @@
     <t>Nicely appointed clean room, comfortable beds and friendly staff. Thank you, General Manager Scott S., for assistance with our reservation change, and to Julie, who lays out the great breakfast, for allowing me to get some last-minute food to start my day. You guys rock!!More</t>
   </si>
   <si>
+    <t>RSJ999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r328091573-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1004,9 @@
     <t>There's not a great lot to do in Alvarado But whatever there is this Holiday Inn expressIs right in the middle of itThe staff are friendly and the place is nice and cleanThe pool is a bonus Especially if you have kidsMore</t>
   </si>
   <si>
+    <t>petticoatpoms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r324275613-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1016,9 @@
     <t>November 3, 2015</t>
   </si>
   <si>
+    <t>OliviapWalker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r317622133-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -956,6 +1046,9 @@
     <t>I have been traveling a lot for work and been staying Monday through Friday at the Holiday Inn Express in Alvaredo Texas.  From the moment you walk in the door, you feel at home. The manager Scott is fantastic and always attentive to the needs of his customers. Tim absolutely makes me feel like a rockstar! He goes out of his way to make sure my stay is comfortable and the best it can be. That's why I keep going back. Thanks to you all!!!!More</t>
   </si>
   <si>
+    <t>J H M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r317151651-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -974,6 +1067,9 @@
     <t>Stayed here during a weekend conference and it was delighted on the guest room and especially the service.  Everyone looked clean and professional and was friendly at every encounter.  This is the place to stay when in Alvarado!More</t>
   </si>
   <si>
+    <t>mas4467</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r316924071-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1091,9 @@
     <t>Stayed here twice in the last week while in and out of the area on business.  Front desk staff is always pleasant and friendly.  Large rooms, clean, good bedding package and soft towels.  Comfortable area to sit and watch TV.  Room rates are very reasonable for the area.More</t>
   </si>
   <si>
+    <t>Mike W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r311679334-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1121,9 @@
     <t>As a frequent traveler, I can not say enough good things about this hotel.  The indoor hot tub was very relaxing after a long day of my work meetings.  The staff was fantastic.  You can tell they really care about their job and made me feel at home.  They genuinely cared about my stay and greeted me every time I saw them.  Stay here!More</t>
   </si>
   <si>
+    <t>johnwesleyharden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r293802976-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1049,6 +1151,9 @@
     <t>Superior check.in, great front desk personel,  clean , well stocked room, super location, awesome ice cream vendor machines, immaculate swimming pool,  friendly breakfast attendant,  fitness room, business center,  little store, oh my. Simply one of the best!More</t>
   </si>
   <si>
+    <t>MrsR1985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r291556357-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1178,9 @@
     <t>Room was spacious and clean, bed was most comfortable, breakfast was great, staff was quite friendly.  We left our iPad on the desk, and did not realize it until we're were home in another state.  A phone call the next day was returned promptly by the manager, Scott, who located the iPad and said he would be glad to mail it to us.  He did, that day, and it is in our possession again...what a relief!  Thanks so much to Scott and his staff!  Super job!More</t>
   </si>
   <si>
+    <t>Lisa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r290386261-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1094,6 +1202,9 @@
     <t>We really enjoyed our stay at Holiday Inn Express. The staff was very friendly. I was impressed with the room,it was clean and very comfortable. We slept great. They do a great job on their breakfast! Recommend staying here to anyone traveling to the Alvarado area.More</t>
   </si>
   <si>
+    <t>Cody A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r289799597-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1226,9 @@
     <t>The hotel is very nice and clean with very comfortable beds.  The indoor pool area was great for the kids to have some fun while taking a break from being on the road.  The staff is very friendly and I would recommend this hotel to any type of traveler.More</t>
   </si>
   <si>
+    <t>Michelle f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r289556478-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1256,9 @@
     <t>Stayed a few nights here and would recommend this hotel to anyone.  Very clean,  breakfast was great. Very kid friendly.  The front desk greats you with a smile every time you walk in.  Every morning we were asked if everything was going good.  Shanna and Tim were amazing in answering any questions we had.  House keeping even greeted us every morning.  The pool area was fun for the kids.More</t>
   </si>
   <si>
+    <t>n s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r199753724-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1313,9 @@
     <t>I have stayed here several times, the staff is very helpful and freiendly.  Generally get in late and leave early.  Bedding package is new and comfortable, breakfast is standard Holiday Inn Express but the staff and the servers make it very enjoyable to stay here.More</t>
   </si>
   <si>
+    <t>Carolyn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r188473488-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1217,6 +1337,9 @@
     <t>My husband and I stayed over the Christmas Holiday to be close to family who live nearby. The hotel is fairly new so thought it would be a good choice, however on returning to our room on a Sunday evening our room had been cleaned, trash emptied and fresh towels but our bed not made. Being a Sunday and probably short staffed we didn't complain but the same thing happened on Monday evening. We do not expect a sheet change but at least make the bed. We called the front desk and was told "I'll make a note of that". On check out my husband issued a complaint again and there had been no note made previously. We usually find the Holiday Inns clean and comfortably for short stays but was disappointed with this one. On check out we were told that maybe we could get some extra points for compensation which was okay and a nice offer. Within 10 minutes of driving away we got a phone call and the desk clerk said the hotel would be happy to comp one free night of the 2 nights. Wow, now that is the way to take care of customers. Also, need to add, while my husband was checking out and making his complaint, the head housekeeper was called in to listen to his complaint. That was impressive. Yes, we will stay there again due to the good management and the...My husband and I stayed over the Christmas Holiday to be close to family who live nearby. The hotel is fairly new so thought it would be a good choice, however on returning to our room on a Sunday evening our room had been cleaned, trash emptied and fresh towels but our bed not made. Being a Sunday and probably short staffed we didn't complain but the same thing happened on Monday evening. We do not expect a sheet change but at least make the bed. We called the front desk and was told "I'll make a note of that". On check out my husband issued a complaint again and there had been no note made previously. We usually find the Holiday Inns clean and comfortably for short stays but was disappointed with this one. On check out we were told that maybe we could get some extra points for compensation which was okay and a nice offer. Within 10 minutes of driving away we got a phone call and the desk clerk said the hotel would be happy to comp one free night of the 2 nights. Wow, now that is the way to take care of customers. Also, need to add, while my husband was checking out and making his complaint, the head housekeeper was called in to listen to his complaint. That was impressive. Yes, we will stay there again due to the good management and the friendly desk clerks. When there is a complaint I wish everyone would take it as serious as this team. Thank you.More</t>
   </si>
   <si>
+    <t>transientangel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r184714909-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1361,9 @@
     <t>The stay I had in this Holiday Inn was the most positive hotel experience I have ever had. Check in and out went seamlessly. The staff and the manager were all very pleasant, helpful and accommodating. My room and the hotel its self were very neat and clean. My bed was oh so comfortable and my room was quiet and peaceful. Breakfast was delicious and right on time. Even the grounds and parking lot were neat and clean. I have done a lot of traveling and stayed in many a  hotel and I can honestly say this ranks right up there with the best of them. You can't go wrong here.More</t>
   </si>
   <si>
+    <t>steven r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r163792771-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1277,6 +1403,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>RonTX-FL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r155359750-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1430,9 @@
     <t>Stayed at this hotel, 3/14-3/17/2013, and was pleased by the clean &amp; well-kept property. Friendly front desk staff on all days.  At first look, I thought this hotel had to have been open less than 12-months...but was totally surprised to find out that it has been open since 2010. Room was very clean, and serviced properly during our stay. Breakfast bar was well-supplied, with a generous selection, thorough the advertised morning availability...did not run out of anything. Coffee was somewhat tasteless. The WiFi did shutdown while we were there...but "stuff happens"... not the end of the world. Adequate parking for all sizes of vehicles.More</t>
   </si>
   <si>
+    <t>xTraveLoverx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r152548672-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1460,9 @@
     <t>Check in wasn't overly friendly and my priority membershp wasn't acknowledged.Wifi was spotty and slow.Loud and disruptive party staying on our floor made sleep difficult. Called down to the front desk and the problem was not resolved, if anything their party became louder.Property was clean but breakfast wasn't available until I believe after 7am weekends, ended up having to drive through McDonalds which was inconvenient.More</t>
   </si>
   <si>
+    <t>Travelinghotelguest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r149661353-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1352,6 +1487,9 @@
     <t>The staff and management at this location are awful! We asked for towels for the pool and got bath mats!!! We were told the indoor pool was heated and it wasn't. They even told us it was fixed and it wasn't. It was freezing!!!We had our kids w/ us so this was the major draw.. There is something that just feels completely wrong about this place. There was a cop making a round around the hallways as well... Friends of the staff were in the lobby every time we walked thru.  The manager was supposed to call me and never did... More</t>
   </si>
   <si>
+    <t>Douglas G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r149387008-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1374,6 +1512,9 @@
   </si>
   <si>
     <t>My family stayed here on Jan 4, 2013 in two rooms on second floor.  Clerk said hotel was not full.  We could not sleep due to loud barking dog a few rooms down hallway.  Called desk clerk at midnight and asked for dog to be removed, noisy guests moved, or worst case move us.  Clerk went up to room, guests did not answer.  No other help given, my request to move ignored.  Called clerk again at 4:00 a.m. as no one could sleep.  Clerk said he'd gotten several complaints on the dog, but could not help us.  We checked out at 7:00 am, exhausted, and now having to drive in heavy fog--Thanks.  Left several messages for mananger--all unanswered.  Manager answered phone once, said let me get back to you in five minutes, never called me back.  Asst manager told me she would speak to manager and call be  back by noon--never called me back.  Finally pinned down asst mgr again, and she offerred to take $25 off our bill--no thanks.  I will  never stay at this hotel again--I'll try the Comfort Suites next door.  Can't believe a hotel does not have a plan to deal with unruly or noisy guests/pets impacting the rest of other guests, at least I didn't see any indication of a plan--or sleep!More</t>
+  </si>
+  <si>
+    <t>loves2laugh29</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r132739036-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1405,6 +1546,9 @@
 The security camera in the swimming pool area had been tampered with and moved so it only viewed a wall and not the pool.  There is no driveway for the hotel and it is hard to get to. You have to turn into the same driveway as another hotel and beer store and drive through one of their parking lots to get to the hotel.  They are located right on the freeway access...There are so many things wrong with this hotel.  I've stayed at other Holiday Inn Expresses and they've been great but the managers of this site are letting their guests down.  They are apparently family oriented and allow all their employees to bring their children to work with them. We booked five rooms for four nights and I saw the front desk staff sit in the common area all day watching TV, one staff member has a baby she lets crawl around on the front reception desk, and this same employee stand behind the front desk straightening her hair.  While the staff was fixing their hair and watching cartoons with their children on the morning we were to check out the elevator broke down.  We called the front desk twice asking for assistance and were ignored both times and left standing in the hall for 20 minutes just waiting - of course they couldn't be inconvenienced by the guests they were watching cartoons and straightening their hair.  The security camera in the swimming pool area had been tampered with and moved so it only viewed a wall and not the pool.  There is no driveway for the hotel and it is hard to get to. You have to turn into the same driveway as another hotel and beer store and drive through one of their parking lots to get to the hotel.  They are located right on the freeway access lane and the traffic noise in the morning is excessive.  Three of the rooms key-cards kept going out and we kept having to go back to reception everyday and get cards replaced.  One of my family members went to reception and asked for a key-card to a room that was another family members room and was handed it without answering any questions or showing any i.d. just given a card to someone elses room.   The hotel was clean and the staff was relatively friendly. But I will never stay at this facility again and would never recommend it to anyone.More</t>
   </si>
   <si>
+    <t>JRUT72286</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r131991750-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1421,6 +1565,9 @@
   </si>
   <si>
     <t>Stayed 6/12-6/13/12.My first trip for business travel to Texas landed me in Holiday Inn- Alvarado.  Building is practically new, must be within the last few years.  The Staff member was super nice.  Checkin and Checkout was fast and easy.  Try and get a room away from 35W, can be very loud with trucks all night.  Hotel met all of my needs and then some.  Used the business center and the fitness center.  A great hotel for a business traveler.  Should I return to the area, will reconsider staying here.  The rates were reasonable and there is plenty of parking.  My only complaint, the sink was leaky and dripped most of the night.  Cant complain much more.  Shame my meeting got me out of there before breakfast was served..More</t>
+  </si>
+  <si>
+    <t>twincitiestravler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r130551111-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1448,6 +1595,9 @@
 The pool area was spotless and very relaxing.  It was...I was recently here for a one night stay.  Check in was welcoming, accurate, and fast.  I am not even sure if the front desk agent had clocked in yet as we both came in at the same time.  She recognized my Priority Club Status.  This front desk agent was Marissa and she truly cares about her guests and making them feel like part of the family at this property.  She was a joy to chat with and really enhanced my stay at this property. She is another front desk agent that all hotel properties need that would result in the elimination of that complaint file. Professional but at the same time down-to-earth. My room was very large, spotless, and the bed was very comfortable.    I enjoyed the sofa sleeper in the room and all furniture was of top quality.  My room was on the back side of this hotel which is the interstate side but the noise really did not bother me and certainly was never awaken by any noise.  I needed a safe deposit box and Marissa assisted with this request.  There were a few glitches in the beginning but Marissa did not give up and kept me informed as to what was going on.  The box was finally opened and my materials deposited.  She followed protocol exactly as should be done--the problem was with the box itself.The pool area was spotless and very relaxing.  It was nice to enjoy after a long drive.  The two computers and printer offered was a nice addition to utilize.  The breakfast room was a very nice and relaxing place to sit and have breakfast.  Items available were both hot and cold and well maintained.  The food itself was good, filling and hot.  I really could not ask for more.  Location of this property was very convenient to a travellers needs.It is evident that management and staff care about their property, guests, and making your stay a most pleasant one.  I would highly recommend staying at this property in needing overnight accommodations or for even a longer stay.  You cannot go wrong here.More</t>
   </si>
   <si>
+    <t>BSpeaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r127478942-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1466,6 +1616,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Lora J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r126562057-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1637,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>herrington5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r126438175-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1497,6 +1653,9 @@
   </si>
   <si>
     <t>We stayed in March. We had our 3 children with us and got a suite and was perfect. The rooms were nice and clean., very roomy, and didnt have that gross hotel smell. The bed were comfortable. The staff we very friendly and were always wanting to help. They have continental breakfast that puts the rest to shame. Its more like a buffet and it is delish. The indoor pool is great for letting the kids swim during the freezing cold. Look forward to going back.</t>
+  </si>
+  <si>
+    <t>Rachel B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r122425432-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1524,6 +1683,9 @@
  My husband arrived around 8:00, so we were relaxing in the room.  The room was clean, well decorated, and inviting.  A little while later the phone rang.  It was Josie at the front desk.  She wanted to remind us that dinner would be served soon and that they were looking forward to having us join them.   My husband and I were having such a good time, that we decided to stay at the Holiday Inn for New Year's instead of...My husband got on Travelocity and booked a room here for New Year's Eve because it was halfway between where he works and where we live.  He had to work late, but we planned on meeting around 8:00 at the hotel then leaving from there to go out dancing.  When I arrived around 5:45, I was greeted by Josie. (She was so nice!) She informed me that there would be a wine tasting from 6:30-7:30, bbq dinner at 8:30, dessert in the lobby at 10:30. and then a New Year's Welcome at midnight. (I believe that this was a fund raiser for Alvarado High School's ROTC program.)   What a nice surprise!  So, while I waited for my husband to arrive I went to the wine tasting. (My first one!) It was being hosted by Bruce Anderson of Sunset Winery (Burleson,Tx).  It was informative and fun. I also learned that they have monthly events and gatherings at the winery in Burleson.  My husband arrived around 8:00, so we were relaxing in the room.  The room was clean, well decorated, and inviting.  A little while later the phone rang.  It was Josie at the front desk.  She wanted to remind us that dinner would be served soon and that they were looking forward to having us join them.   My husband and I were having such a good time, that we decided to stay at the Holiday Inn for New Year's instead of going out dancing. We went to dinner. We sat with Mr. &amp; Mrs. James Spencer and guests. (Sponsors of this shindig.) The bbq was fabulous and was catered by Cass Stevens of Lillian,Texas.  The tables were beautifully decorated and we all donned party hats. The curtains on the windows were pulled back and we were treated to a professional fireworks display.  The manager, Kirk Williams, introduced us to his beautiful family and then invited us to join them in the lobby at 10:30 for desserts.  The husband and I went and it was so worth it. In the lobby, the ROTC had moved the tables back in order to create a dance floor.  The dj was a ROTC teacher from Mansfield-- a nice guy with a great voice--I hate that I can't remember his name.... Everyone was gathered around talking, singing, and dancing--old and young alike.  I spoke with Kirk's wife, Jacque, and she said she was so happy to have the family all together, "A family that plays together stays together."  She is so right about that.  It made me wish that we would have brought our boys with us.At midnight, we wished each other well and parted ways, but before doing so, I told Kirk Williams, "Who would have thought that we could have so much good, clean fun at a Holiday Inn Express in Alvarado, Texas?" :)I highly recommend this hotel.  It feels like you are among friends/family here.  It is so fresh and clean.  The only complaint I have is that it was a little difficult to turn into the hotel parking lot, but I realize that this is a new building and they haven't fixed that driveway yet.  I will stay here again.  I hope that they have a New Year's Eve party there again next year.  The husband and I will come and bring our boys.  We will stay safe inside--far away from the crazy midnight drivers. Mr. Williams--Thanks again for a most enjoyable evening.  Happy New Year to you, your family, and your wonderful staff.More</t>
   </si>
   <si>
+    <t>ourunner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r122406987-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1698,9 @@
     <t>Hotel has been open only a year so everything is new. As a Platinum  member I was upgraded to a larger exec room. Even though it was next to the Gym and the elevator we had a quiet night.Staff very friendly and helpful. Entrance a bit difficult to find in the dark .Northbound take the exit ramp, turn RIGHT then turn left into the MacDonalds area. Free internet, gym, pool and breakfast. Lots of fast food dining nearby + grocery store. Cannot fault this place.</t>
   </si>
   <si>
+    <t>mleuth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r121623886-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1716,9 @@
     <t>Alvarado may not be the cherry spot -  it's "reason d'aitre" is the intersection. There aint nottin else. However that hotel is quite the place! Brand new, clean, modern, large rooms......</t>
   </si>
   <si>
+    <t>VinGins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r121436213-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1737,9 @@
     <t>Nice, clean EVERYTHING!  From the rugs in the rooms, to the bed linens and towels, this place rocks. Great, comfortable bed. The rooms do not smell like old cigarette smoke or cleaning chemicals...probably because this is a new hotel. Everything you would expect from a nice hotel is right here. The staff was very nice and helpful. Two minor complaints...the fitness equipment was broken, and the cleaning maids knocked on our door even though we had requested a late checkout.  Missed breakfast, but the dining area looked inviting with a faux fireplace. (Tip...get rid of the TV in the dining area.  Why do we have to have tv's everywhere?) The pool is great for lap swimming, and the jacuzzi was relaxing, clean and just the right temp.  Will definately book here again.More</t>
   </si>
   <si>
+    <t>alikarim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r120818264-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1758,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>travelingfam04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r120112813-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1779,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>DarnCatFish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r117148455-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1623,6 +1800,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>cowgirllady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r115690355-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1641,6 +1821,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>johnmari1983</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r109574048-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +1839,9 @@
     <t>It was such a great hotel...........from friendly to clean.  Great rooms so clean and comfy</t>
   </si>
   <si>
+    <t>ldbruin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r109364668-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1857,9 @@
     <t>The staff here could not have been better. Very welcoming at check in and when we needed directions. Its not a huge hotel, and even though they were sold out the weekend we were there, nothing seemed too busy. The rooms are very spacious and modern. The bedding is extremely comfortable and there wasn't much outside noise. This hotel opened only less than a year ago so everything seems fresh and up to date. The pool area was also great and the hot tub is perfect! We visited Glen Rose and this hotel is only about 25-30 minutes away. Thank you for helping make our trip absolutely perfect/</t>
   </si>
   <si>
+    <t>meli33three</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r103421080-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1684,6 +1873,9 @@
   </si>
   <si>
     <t>This place is very new, therefore very clean, and very quiet. The guy that checked us in was very friendly and helpful, as well! This is the best hotel experience we have had  in a long long time!</t>
+  </si>
+  <si>
+    <t>followmylead</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r95779526-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -2206,43 +2398,47 @@
       <c r="A2" t="n">
         <v>61056</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>154982</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2256,41 +2452,45 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>61056</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>22739</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -2307,56 +2507,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>61056</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>154983</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2368,56 +2572,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>61056</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>154984</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2435,56 +2643,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>61056</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>5656</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2496,56 +2708,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>61056</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>154985</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2557,56 +2773,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>61056</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>154986</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2622,56 +2842,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>61056</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>154987</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" t="s">
         <v>109</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" t="s">
-        <v>102</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2689,56 +2913,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>61056</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>9582</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2756,56 +2984,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>61056</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>71472</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2817,56 +3049,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>61056</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>27870</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2878,56 +3114,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>61056</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>154988</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2943,56 +3183,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>61056</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>154989</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3004,47 +3248,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>61056</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>28172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
@@ -3061,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
@@ -3080,37 +3328,37 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3122,56 +3370,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>61056</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>154990</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3183,56 +3435,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>61056</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>22207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3250,56 +3506,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>61056</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>154991</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3317,56 +3577,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>61056</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>154992</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3378,56 +3642,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>61056</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>154993</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3439,56 +3707,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>61056</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>154961</v>
+      </c>
+      <c r="C22" t="s">
+        <v>237</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3506,56 +3778,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>61056</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>3267</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>246</v>
+      </c>
+      <c r="J23" t="s">
+        <v>247</v>
+      </c>
+      <c r="K23" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" t="s">
+        <v>249</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>224</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>225</v>
-      </c>
-      <c r="J23" t="s">
-        <v>226</v>
-      </c>
-      <c r="K23" t="s">
-        <v>227</v>
-      </c>
-      <c r="L23" t="s">
-        <v>228</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>206</v>
-      </c>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3571,56 +3847,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="X23" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>61056</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>25284</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3632,56 +3912,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="X24" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>61056</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>22311</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3697,47 +3981,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="X25" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>61056</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>154994</v>
+      </c>
+      <c r="C26" t="s">
+        <v>271</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
@@ -3754,56 +4042,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>61056</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>6231</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3821,56 +4113,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>61056</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>154995</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3882,13 +4178,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29">
@@ -3901,37 +4197,37 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3947,56 +4243,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>61056</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C30" t="s">
+        <v>309</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4014,56 +4314,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="X30" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>61056</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>154996</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="J31" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4075,41 +4379,45 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>61056</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>154997</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s"/>
@@ -4125,51 +4433,52 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>61056</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>154998</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4185,56 +4494,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="X33" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>61056</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>154999</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="O34" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4252,56 +4565,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="X34" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>61056</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>145796</v>
+      </c>
+      <c r="C35" t="s">
+        <v>349</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="J35" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="L35" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4317,56 +4634,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="X35" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Y35" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>61056</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C36" t="s">
+        <v>357</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="O36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4384,56 +4705,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="X36" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>61056</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>367</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="J37" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4445,56 +4770,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="X37" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="Y37" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>61056</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155001</v>
+      </c>
+      <c r="C38" t="s">
+        <v>377</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="O38" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4512,56 +4841,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="X38" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="Y38" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>61056</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>9071</v>
+      </c>
+      <c r="C39" t="s">
+        <v>386</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="J39" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="K39" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="L39" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4573,56 +4906,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="X39" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="Y39" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>61056</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>50675</v>
+      </c>
+      <c r="C40" t="s">
+        <v>394</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="O40" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4638,56 +4975,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="X40" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="Y40" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>61056</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155002</v>
+      </c>
+      <c r="C41" t="s">
+        <v>402</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="J41" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4699,56 +5040,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="X41" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="Y41" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>61056</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>48566</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="O42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4760,56 +5105,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="X42" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="Y42" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>61056</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>145796</v>
+      </c>
+      <c r="C43" t="s">
+        <v>349</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="K43" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="L43" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="O43" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4831,56 +5180,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="X43" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>61056</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C44" t="s">
+        <v>431</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4904,50 +5257,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>61056</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155003</v>
+      </c>
+      <c r="C45" t="s">
+        <v>439</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="J45" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="L45" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="O45" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4971,50 +5328,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>61056</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>155004</v>
+      </c>
+      <c r="C46" t="s">
+        <v>447</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="J46" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="K46" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="L46" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5038,50 +5399,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>61056</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>145796</v>
+      </c>
+      <c r="C47" t="s">
+        <v>349</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="J47" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="K47" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="O47" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5105,50 +5470,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>61056</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155005</v>
+      </c>
+      <c r="C48" t="s">
+        <v>461</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="K48" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="L48" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="O48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5170,56 +5539,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="X48" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="Y48" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>61056</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155006</v>
+      </c>
+      <c r="C49" t="s">
+        <v>470</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="J49" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="K49" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="L49" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="O49" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5241,47 +5614,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="X49" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="Y49" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>61056</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155007</v>
+      </c>
+      <c r="C50" t="s">
+        <v>480</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="J50" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="K50" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="L50" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -5308,56 +5685,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="X50" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="Y50" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>61056</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>20205</v>
+      </c>
+      <c r="C51" t="s">
+        <v>489</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="J51" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="K51" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="L51" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="O51" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5379,56 +5760,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="X51" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="Y51" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>61056</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>92084</v>
+      </c>
+      <c r="C52" t="s">
+        <v>498</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="J52" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="K52" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="L52" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="O52" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5450,56 +5835,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="X52" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="Y52" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>61056</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155008</v>
+      </c>
+      <c r="C53" t="s">
+        <v>508</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="J53" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="K53" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="L53" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="O53" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5523,50 +5912,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>61056</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>58288</v>
+      </c>
+      <c r="C54" t="s">
+        <v>515</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="J54" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="K54" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="L54" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="O54" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5590,50 +5983,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>61056</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>102401</v>
+      </c>
+      <c r="C55" t="s">
+        <v>523</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="J55" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="K55" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="L55" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="O55" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5657,50 +6054,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>61056</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155009</v>
+      </c>
+      <c r="C56" t="s">
+        <v>530</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="J56" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="K56" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="L56" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="O56" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5724,50 +6125,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>484</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>61056</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155010</v>
+      </c>
+      <c r="C57" t="s">
+        <v>537</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="J57" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="K57" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="L57" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="O57" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5791,50 +6196,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>61056</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>8997</v>
+      </c>
+      <c r="C58" t="s">
+        <v>543</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="J58" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="L58" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="O58" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5858,50 +6267,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>61056</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155011</v>
+      </c>
+      <c r="C59" t="s">
+        <v>551</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="J59" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="K59" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="L59" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="O59" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5925,50 +6338,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>61056</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155012</v>
+      </c>
+      <c r="C60" t="s">
+        <v>556</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="J60" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="K60" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="L60" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5992,50 +6409,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>61056</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155013</v>
+      </c>
+      <c r="C61" t="s">
+        <v>562</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="J61" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="K61" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="L61" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="O61" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6059,50 +6480,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61056</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>21870</v>
+      </c>
+      <c r="C62" t="s">
+        <v>569</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="J62" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="K62" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="L62" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="O62" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6126,50 +6551,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61056</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>155014</v>
+      </c>
+      <c r="C63" t="s">
+        <v>576</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="J63" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="K63" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="L63" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="O63" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6193,50 +6622,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>61056</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155015</v>
+      </c>
+      <c r="C64" t="s">
+        <v>583</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="J64" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="K64" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="L64" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="O64" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6256,50 +6689,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>61056</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>155016</v>
+      </c>
+      <c r="C65" t="s">
+        <v>590</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="J65" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="K65" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="L65" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="O65" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6319,50 +6756,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>61056</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>155017</v>
+      </c>
+      <c r="C66" t="s">
+        <v>597</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="J66" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="K66" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="L66" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="O66" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6386,50 +6827,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>61056</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155018</v>
+      </c>
+      <c r="C67" t="s">
+        <v>603</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="J67" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="K67" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="L67" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="O67" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6453,41 +6898,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>61056</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155019</v>
+      </c>
+      <c r="C68" t="s">
+        <v>609</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="J68" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="K68" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="L68" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6516,50 +6965,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>61056</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155020</v>
+      </c>
+      <c r="C69" t="s">
+        <v>615</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="J69" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="K69" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="L69" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="O69" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6583,7 +7036,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_342.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_342.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="824">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>rrdriever</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r584225151-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>30162</t>
+  </si>
+  <si>
+    <t>1945966</t>
+  </si>
+  <si>
+    <t>584225151</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Buford&amp; Annette Taylor</t>
+  </si>
+  <si>
+    <t>I usually don't write reviews but really needed to tell how my family and I was treated at the Holiday Inn Express in Alvarado Tx.we live at the hotel from December.2017-May2018 due to job layoffs around the same time.This hotel has good reviews but my experience was very different when we moved in in December 2017 the air conditioner would go out on a regular basis and the floor would be socking with water this went up March 2018 management figure out it was a hole in foundation when we had big rain it would saturate the floor the house keeper brought towels to soak up water and a fan we complained about water and mold build up from Dec-March before the manager Brain decided to give us another room we asked several times he told us he was taking care of the problem that didn't happen until March we throught this hotel was clean until we were told to move out it's not it is a Fility place to live most people are there only a couple nights and think Grand this hotel I'm sure has Toxic mold in the rooms the second room they moved us to u could smell the mold every time u enter the room and heaven knows what else is going on please don't take your family members with auto immune issue they will become very sick because of.mold and dust mites I have...I usually don't write reviews but really needed to tell how my family and I was treated at the Holiday Inn Express in Alvarado Tx.we live at the hotel from December.2017-May2018 due to job layoffs around the same time.This hotel has good reviews but my experience was very different when we moved in in December 2017 the air conditioner would go out on a regular basis and the floor would be socking with water this went up March 2018 management figure out it was a hole in foundation when we had big rain it would saturate the floor the house keeper brought towels to soak up water and a fan we complained about water and mold build up from Dec-March before the manager Brain decided to give us another room we asked several times he told us he was taking care of the problem that didn't happen until March we throught this hotel was clean until we were told to move out it's not it is a Fility place to live most people are there only a couple nights and think Grand this hotel I'm sure has Toxic mold in the rooms the second room they moved us to u could smell the mold every time u enter the room and heaven knows what else is going on please don't take your family members with auto immune issue they will become very sick because of.mold and dust mites I have two daughters with asthma and they stayed sick I made one complaint to corporate and we're ask to leave hotel with less 24 hours I had to miss work and find another hotel which turned out to be a blessing when I came to hotel I'm at now I realize how NASTY this place was I was so thankful God moved my family this is spotless and up to date the everything is keep clean I was told by customer service representative at Holiday Day Inn that if I made a a complaint I would not receive retaliation not true we we ask to.leave we we're assured cooperate would take care of situation didn't happen they lied also we still have received a call from anyone concerning complaint I was told by Brain and head houses keeper that I was ruining there towels with my makeup and gave me makeup wipes that burn my face when I used them I know I'm not the only woman who use towels to remove makeup that came off on towels I feel I have been racially profile because my color of my makeup it is very different (I Am African American) on top of that my husband didn't realize they were charging use for towels without use knowing on.our bill weekly this place looks nice and friendly but there not they have high turnover rate because it's a crappy place to work they worked the cleaning ladies so hard they're exhausted when they leave for home our maid Jennifer was so sweet to my.family by keeping the room as clean as she could I became friends with some of the people who worked there the District manager Scott called one of the customer service position and was yelling and cursing out for leaving this she had given them a one week notice and.they are very  professional they talk about clients and know they have voilated HIPPA policy if OSHA would come and do a through inpesction of.this hotel I am positive the would find toxic mold every where please don't take your family to this NASTY place.I am so thankful God moved my family to a great hotel where everything is really clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Brian K, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>I usually don't write reviews but really needed to tell how my family and I was treated at the Holiday Inn Express in Alvarado Tx.we live at the hotel from December.2017-May2018 due to job layoffs around the same time.This hotel has good reviews but my experience was very different when we moved in in December 2017 the air conditioner would go out on a regular basis and the floor would be socking with water this went up March 2018 management figure out it was a hole in foundation when we had big rain it would saturate the floor the house keeper brought towels to soak up water and a fan we complained about water and mold build up from Dec-March before the manager Brain decided to give us another room we asked several times he told us he was taking care of the problem that didn't happen until March we throught this hotel was clean until we were told to move out it's not it is a Fility place to live most people are there only a couple nights and think Grand this hotel I'm sure has Toxic mold in the rooms the second room they moved us to u could smell the mold every time u enter the room and heaven knows what else is going on please don't take your family members with auto immune issue they will become very sick because of.mold and dust mites I have...I usually don't write reviews but really needed to tell how my family and I was treated at the Holiday Inn Express in Alvarado Tx.we live at the hotel from December.2017-May2018 due to job layoffs around the same time.This hotel has good reviews but my experience was very different when we moved in in December 2017 the air conditioner would go out on a regular basis and the floor would be socking with water this went up March 2018 management figure out it was a hole in foundation when we had big rain it would saturate the floor the house keeper brought towels to soak up water and a fan we complained about water and mold build up from Dec-March before the manager Brain decided to give us another room we asked several times he told us he was taking care of the problem that didn't happen until March we throught this hotel was clean until we were told to move out it's not it is a Fility place to live most people are there only a couple nights and think Grand this hotel I'm sure has Toxic mold in the rooms the second room they moved us to u could smell the mold every time u enter the room and heaven knows what else is going on please don't take your family members with auto immune issue they will become very sick because of.mold and dust mites I have two daughters with asthma and they stayed sick I made one complaint to corporate and we're ask to leave hotel with less 24 hours I had to miss work and find another hotel which turned out to be a blessing when I came to hotel I'm at now I realize how NASTY this place was I was so thankful God moved my family this is spotless and up to date the everything is keep clean I was told by customer service representative at Holiday Day Inn that if I made a a complaint I would not receive retaliation not true we we ask to.leave we we're assured cooperate would take care of situation didn't happen they lied also we still have received a call from anyone concerning complaint I was told by Brain and head houses keeper that I was ruining there towels with my makeup and gave me makeup wipes that burn my face when I used them I know I'm not the only woman who use towels to remove makeup that came off on towels I feel I have been racially profile because my color of my makeup it is very different (I Am African American) on top of that my husband didn't realize they were charging use for towels without use knowing on.our bill weekly this place looks nice and friendly but there not they have high turnover rate because it's a crappy place to work they worked the cleaning ladies so hard they're exhausted when they leave for home our maid Jennifer was so sweet to my.family by keeping the room as clean as she could I became friends with some of the people who worked there the District manager Scott called one of the customer service position and was yelling and cursing out for leaving this she had given them a one week notice and.they are very  professional they talk about clients and know they have voilated HIPPA policy if OSHA would come and do a through inpesction of.this hotel I am positive the would find toxic mold every where please don't take your family to this NASTY place.I am so thankful God moved my family to a great hotel where everything is really clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r565784625-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>565784625</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Quick Trip</t>
+  </si>
+  <si>
+    <t>We stayed here for a few days while visiting family.  The hotel was very clean, friendly, updated. The beds were so comfortable we slept so well. They offer free breakfast with an assortment of cereal, oatmeal,breads, pancakes, juice,coffee etc. The staff was very friendly and very helpful. It’s in a little strip area so there are different restaurants, stores and gas stations around. Would definitely recommend staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Bkelly5512, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for a few days while visiting family.  The hotel was very clean, friendly, updated. The beds were so comfortable we slept so well. They offer free breakfast with an assortment of cereal, oatmeal,breads, pancakes, juice,coffee etc. The staff was very friendly and very helpful. It’s in a little strip area so there are different restaurants, stores and gas stations around. Would definitely recommend staying here. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r575031565-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
-    <t>30162</t>
-  </si>
-  <si>
-    <t>1945966</t>
-  </si>
-  <si>
     <t>575031565</t>
   </si>
   <si>
@@ -183,36 +234,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Ashley R</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r565784625-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
-  </si>
-  <si>
-    <t>565784625</t>
-  </si>
-  <si>
-    <t>03/11/2018</t>
-  </si>
-  <si>
-    <t>Quick Trip</t>
-  </si>
-  <si>
-    <t>We stayed here for a few days while visiting family.  The hotel was very clean, friendly, updated. The beds were so comfortable we slept so well. They offer free breakfast with an assortment of cereal, oatmeal,breads, pancakes, juice,coffee etc. The staff was very friendly and very helpful. It’s in a little strip area so there are different restaurants, stores and gas stations around. Would definitely recommend staying here. MoreShow less</t>
-  </si>
-  <si>
-    <t>Bkelly5512, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded March 15, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 15, 2018</t>
-  </si>
-  <si>
-    <t>We stayed here for a few days while visiting family.  The hotel was very clean, friendly, updated. The beds were so comfortable we slept so well. They offer free breakfast with an assortment of cereal, oatmeal,breads, pancakes, juice,coffee etc. The staff was very friendly and very helpful. It’s in a little strip area so there are different restaurants, stores and gas stations around. Would definitely recommend staying here. More</t>
-  </si>
-  <si>
-    <t>Marsha Jean A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r574795363-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -240,9 +261,6 @@
     <t>My friend and I rented an executive suite for an overnight stay while shopping Antique Alley. After hours of trumping through pastures looking for treasures, we drug our tired bones to this hotel. The staff is very friendly and helpful. The suite was more than adequate for two "dirty" women to kick our shoes off, take hot showers and relax. There is a sweet shop, guest laundry, fitness center, indoor pool and free hot breakfast.  The price was quite reasonable ($125 when every room in the area was booked due to Antique Alley and a softball tourney). It was also very clean and easy to find.More</t>
   </si>
   <si>
-    <t>Lucas-Knob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r573812073-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -270,9 +288,6 @@
     <t>On Check-in Amber was very helpful.  Breakfast items were as expected at Holiday Inn Express.  Always love the bacon and cinnamon rolls.  Hotel sits very close to I-35 and an on-ramp so noise is an issue.  Ask for room away which helps some.  Only fast-food and gas stations close by.More</t>
   </si>
   <si>
-    <t>Mary Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r566309421-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -288,15 +303,9 @@
     <t>Located conveniently just off I-35 and U.S. 67 in Alvarado, this Holiday Inn Express is easy to find. We have stayed here several times. +Prices are usually cheaper than other nearby Holiday Inn Expresses. +It is kept clean. Staff members are friendly and helpful. +There are several fast food restaurants nearby. -The breakfast room can be quite crowded and food may not be replenished.-The side of the hotel nearest the interstate highway is very noisy since it is quite close to the interstate.-The water tastes bad and has a musty odor. It is, apparently, softened, as it takes a lot of rinsing to shower the soap residue off.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Located conveniently just off I-35 and U.S. 67 in Alvarado, this Holiday Inn Express is easy to find. We have stayed here several times. +Prices are usually cheaper than other nearby Holiday Inn Expresses. +It is kept clean. Staff members are friendly and helpful. +There are several fast food restaurants nearby. -The breakfast room can be quite crowded and food may not be replenished.-The side of the hotel nearest the interstate highway is very noisy since it is quite close to the interstate.-The water tastes bad and has a musty odor. It is, apparently, softened, as it takes a lot of rinsing to shower the soap residue off.More</t>
   </si>
   <si>
-    <t>Elton F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r551360906-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -324,9 +333,6 @@
     <t>My family and I were travelling to Dallas from Austin late for a State Fair weekend and to take in the Cowboys v Packers game and this was the perfect stop for us at the 3/4 mark to getting to our final destination. The staff were courteous, even when arriving around 10pm to check in. They also provided a super Continental Breakfast!  The room was clean and smelled fresh.  It was a phenomenal stay! More</t>
   </si>
   <si>
-    <t>keithhX6086NL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r545967135-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -357,9 +363,6 @@
     <t>When working in this area, this is my only choice for overnight stays. The staff is courteous, the facility is clean &amp; comfortable with plentiful parking. There is a selection or restaurants within walking distance and a few more across the street no more than ¼ mile from the hotels front door. I like this for multiple night stays so I can eat at different locations.More</t>
   </si>
   <si>
-    <t>dpw_12RT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r517545272-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -387,9 +390,6 @@
     <t>Excellent mid-priced hotel option if you are traveling the I-35W corridor.  Very convenient access plus good location with several eating options nearby...who can argue with a Waffle House breakfast!  Staff was friendly &amp; helpful.  Rooms were nicely appointed, clean with wifi included.  Would definitely stay again.More</t>
   </si>
   <si>
-    <t>Sarah J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r508500563-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -417,9 +417,6 @@
     <t>Hotel was about 20 minutes from our destination and was a super easy drive!  The amount that it saved us was well worth the extra couple of minutes of driving.  The hotel is very nice and is kept clean.  We did have a couple of housekeeping issues, but the front desk an GM were great at taking care of them.  The breakfast was fresh each morning and the coffee was perfect!  We will stay here again the next time we are in the area for a tournament.More</t>
   </si>
   <si>
-    <t>Douglas H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r502327264-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -444,7 +441,133 @@
     <t>Stayed here from Sunday through Thursday while doing some training at MillerCoors in Fort Worth. The hotel was a bargain and the room was nice and well furnished. My only negative thing to say is that the room had a musty/mildew smell that caught my attention upon walking into my room. The smell remained all week. The free breakfast was good and they seemed to have fresh coffee every time I went to get a cup. I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>Dwayne G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r496697748-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>496697748</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So super nice! </t>
+  </si>
+  <si>
+    <t>We came in late and had two of the friendliest ladies! I believe it was a shift change! They were there to help us with anything! In the morning Melissa was in the breakfast room still and picked up our plates and helped us wherever we needed it!! Just a great, clean place to stay! We would stay there again! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Bkelly5512, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>We came in late and had two of the friendliest ladies! I believe it was a shift change! They were there to help us with anything! In the morning Melissa was in the breakfast room still and picked up our plates and helped us wherever we needed it!! Just a great, clean place to stay! We would stay there again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r474291085-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>474291085</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Very professional but a quiet family small town atmosphere . The front desk were quick to help when we needed extra items in the toiletries, blanket An pillows. We meet up with some friends there An was an had a very relaxing time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Bkelly5512, Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Very professional but a quiet family small town atmosphere . The front desk were quick to help when we needed extra items in the toiletries, blanket An pillows. We meet up with some friends there An was an had a very relaxing time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r460924828-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>460924828</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wouldn't stop here again </t>
+  </si>
+  <si>
+    <t>First the positive receptionist was polite and friendly. The hotel although old was clean and neat. Breakfast was typical holiday inn. Pool closed not informed of that when we booked. Got into our room smelled like a chemical was used. Husband went to kneel on the rug to put our pop in the fridge. Got up and his knees were all wet. Checked the rug and it was damp near wet. Almost slipped on the bathroom tile was wet too. I wanted to move but my husband refused to because we had already unpacked. After a long 10 hour drive I don't blame him. Called the front desk told her about our disappointment on the wet rug and the pool. She did offer to move us but didn't offer any compensation. I told her that I felt we should be compensated she offered us 1000 points. Question is if you was carpet in a room shouldn't you block that room until the carpet is dry?MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Bkelly5512, Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded February 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2017</t>
+  </si>
+  <si>
+    <t>First the positive receptionist was polite and friendly. The hotel although old was clean and neat. Breakfast was typical holiday inn. Pool closed not informed of that when we booked. Got into our room smelled like a chemical was used. Husband went to kneel on the rug to put our pop in the fridge. Got up and his knees were all wet. Checked the rug and it was damp near wet. Almost slipped on the bathroom tile was wet too. I wanted to move but my husband refused to because we had already unpacked. After a long 10 hour drive I don't blame him. Called the front desk told her about our disappointment on the wet rug and the pool. She did offer to move us but didn't offer any compensation. I told her that I felt we should be compensated she offered us 1000 points. Question is if you was carpet in a room shouldn't you block that room until the carpet is dry?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r447759851-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>447759851</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>I came in last minute without a reservation and from the moment I walked in the staff had been wonderful. I first encountered the night auditor, Shirley, she was absolutely fantastic and such a huge help. In breakfast Melissa was amazing and super kind, she really took care of me. Then the front desk lady whose name I didn't catch, was so kind as well. Everyone here has truly been exceptional. I work at another location so I know the standard to which we should hold ourselves and everyone here has gone above and beyond my expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Bkelly5512, Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded December 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2016</t>
+  </si>
+  <si>
+    <t>I came in last minute without a reservation and from the moment I walked in the staff had been wonderful. I first encountered the night auditor, Shirley, she was absolutely fantastic and such a huge help. In breakfast Melissa was amazing and super kind, she really took care of me. Then the front desk lady whose name I didn't catch, was so kind as well. Everyone here has truly been exceptional. I work at another location so I know the standard to which we should hold ourselves and everyone here has gone above and beyond my expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r447195382-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>447195382</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>This hotel was great! The staff was very helpful and accommodating, the room was very clean and the bed very comfortable. This hotel is pet friendly and the additional cost was $25.00 for our dog.  I would definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was great! The staff was very helpful and accommodating, the room was very clean and the bed very comfortable. This hotel is pet friendly and the additional cost was $25.00 for our dog.  I would definitely stay there again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r438295095-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -474,9 +597,6 @@
     <t>I am usually pretty loyal with Holiday inn express. Last night when I walked in the room, I immediately was hit with a stench of mold/mildew. I thought maybe I was exaggerating so I ask the other two people with me if they smell anything and both said the same thing. I called down to the desk and they told me to just turn the ac on &amp; it will go away. Really? That's the cure? Needless to say I was very disappointed in their response. More</t>
   </si>
   <si>
-    <t>jvc2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r429308902-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -504,9 +624,6 @@
     <t>Well managed and lots of smiles with all the management team, great to stay if your going to the drag races in Ennis as well.The beds and room was very clean and vending machine on each floor. Going up  35W and going directly to Alvarado exit is very simple and stress free.More</t>
   </si>
   <si>
-    <t>Josephine C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r428750434-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -531,9 +648,6 @@
     <t>The hotel is exactly what we needed, too tired to travel further we stopped here. The hotel was clean, beds we so soft and comfy, and the kids loved the pool! Breakfast was great, plenty to choose from, I was glad we stopped and left refreshed. More</t>
   </si>
   <si>
-    <t>Dixie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r426952696-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -582,9 +696,6 @@
     <t>I usually stay at a different hotel when I come to visit family. However this time I stayed here. The indoor pool and spa are great. The staff are very friendly and the room I stayed in was fantastic. Loved my stay. More</t>
   </si>
   <si>
-    <t>Geri L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r420324663-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -603,9 +714,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Bkelly5512, Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded September 26, 2016</t>
   </si>
   <si>
@@ -615,9 +723,6 @@
     <t>I highly recommend the Holiday Inn Express in Alvarado Texas. Stayed 3 nights with my little dog. I appreciate that they like to put people with pets on the first floor for easy access to outdoor walks. Plus plenty of open areas around the building to let my dog run. Employees all very friendly and helpful. My king room was quiet and cool and dark and clean. What more can you ask for! I'll stay there again when I go visit family. More</t>
   </si>
   <si>
-    <t>Terry W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r419974152-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -642,9 +747,6 @@
     <t>Stayed here while enjoying the annual Antique Alley tour.  Extremely nice staff and rooms were good.  Excellent free breakfast.  One suggestion... ask for a room on the East side of the hotel, away from I35, to avoid traffic noise.  The noise did not bother us but it might bother some.  Highly recommend the hotel.More</t>
   </si>
   <si>
-    <t>KBullard68</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r404729595-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -670,9 +772,6 @@
   </si>
   <si>
     <t>Great room and great service...we stopped and reserved a room on my birthday evening instead of driving back home late at night. Our room was very clean, and a good size, quiet room with King bed and a sofa bed. We will stay again next time we are passing through.More</t>
-  </si>
-  <si>
-    <t>margrbrdb</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r395815489-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -704,9 +803,6 @@
 He was horrible to us, I am an 80 year old woman and he made me leave at that time of night.  He also illegally withheld $25.00 deposit (which I verified with my bank) on a previous stay. He told me 2 times he released it to my account, so he lied.  There are other things I do not want to talk about going on with him, because I am going to talk to my attorney.  Think twice before staying at this hotel, it all boils down to:  He was upset with us because we called the corporate...AT 9:30 PM last night this JERK  (Scott Sisk) called the police on me and my son for NO reason and had a Criminal Trespass Warning on us. I have never in my 80 years had a charge place on me.  I think I have had 2 speeding tickets in my 80 years. This all started earlier that morning because someone did not know how to handle our payment earlier that morning.  I told him he had an attitude and he told me I had 15 minutes to vacate and he was calling the police.  I caught him coming out of our room 2 times, while in the process of loading the car and he took some of our things.  He told me I could not go back in to get rest of my things and the police told me I could.He was horrible to us, I am an 80 year old woman and he made me leave at that time of night.  He also illegally withheld $25.00 deposit (which I verified with my bank) on a previous stay. He told me 2 times he released it to my account, so he lied.  There are other things I do not want to talk about going on with him, because I am going to talk to my attorney.  Think twice before staying at this hotel, it all boils down to:  He was upset with us because we called the corporate office on him, because of the way he treated us.More</t>
   </si>
   <si>
-    <t>Nicolette A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r394069772-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -731,9 +827,6 @@
     <t>We recently stayed here for a week and it was great! Our family of four enjoyed our time in the hotel, the breakfast each morning and swimming in the indoor pool. The grounds and facilities were well maintained. The staff was amazing, especially Brian at the front desk and Melissa in housekeeping. Brian took the time to answer a lot of questions my husband had as we are in the midst of settling in the area. Melissa was always so sweet and helpful, always with a smile on her face. She was the sunshine in our mornings! We would definitely stay here again!More</t>
   </si>
   <si>
-    <t>breezyww</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r392154280-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -752,9 +845,6 @@
     <t>We enjoyed this location, it was right off the Hwy and there are a lot of fast food places to eat within walking distance.  The rooms were clean, linens good and the beds were comfortable.  The front desk people were all nice and helpful.  We really liked the Direct TV cable on the TV, it's nice to have the guide like at home.  We used the pool and hot tub, our only complaint was too much chlorine.  The fitness room was even well equipped.  It was hard to find anything to complain about this location and the rate was good, we will stay here again.More</t>
   </si>
   <si>
-    <t>Karen M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r390395435-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -779,9 +869,6 @@
     <t>CLEAN!!!, modern, big rooms. Beds are comfortable. Breakfast has great selection. Pool and hot tub. Well light parking. Family and kid friendly. Open areas to sit and visit inside hotel. Lobby even has ice cold water with fruit slices, cups and ice for guests along with coffee, cocoa, and hot tea 24/7. Someone always on staff at front desk. Staff makes the experience even better. They are friendly and very accommodating. Someone is constantly working in the background cleaning to keep things fresh and welcoming. Wi-Fi has good speed. Extra towels no problem, toiletries no problem, extra pillows or blankets no problem. We have stayed here visiting family and friends 4 times and have always enjoyed the experience.More</t>
   </si>
   <si>
-    <t>Luis R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r382139979-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -809,9 +896,6 @@
     <t>First i would like to give some kudos to that breakfast pancake machine they have that shoots out a warm fluffy pancake on command. Their rooms are big and comfortable and it is one of the rare times that their bed doesn't feel like a downgrade from my bed (which is awesome) rooms are clean blah, blah, blah. Service is great blah, blah, blah. Pool is relatively small, but is indoor which is good depending on weather and whatnot. You can hear the highway a little bit from the hotel, but it isn't that loud that it keeps you awake at night. If you are looking for a well priced and comfortable place to stay. Well you found it. If you are looking for something more upscale with grand a view, you will be disappointed. This place is perfect for budget vacations, shorts stays and the penny pinchers. Had a good time staying here. More</t>
   </si>
   <si>
-    <t>Jim Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r372152205-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -833,9 +917,6 @@
     <t>This is one, if not the best, Holiday Inn Express I have stayed at.  As soon as I walked into the lobby, I had a warm welcome from the front desk staff, I believe her name was Sandy.  Check in was a breeze!  The rooms are clean and comfortable, I slept like I was at home. The whole property is very clean and well maintained.  Great Job!More</t>
   </si>
   <si>
-    <t>TXtraveler897</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r371513011-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -860,9 +941,6 @@
     <t>Stayed at this property for two weeks on business and again one more week in the last few months.  Kudos to the GM on the staff - they are excellent.  Everyone from the front desk personnel to housekeeping and the breakfast lady are very well trained and will go that extra mile to meet your requests. While this is an older property with worn spots here and there, it is very clean.  Plenty of hot water for showers. Ben and linens very comfortable.  Check-in and out efficient. Probably better for family and personal use than business but was told there are plants to make it more "business friendly".  Wi-Fi is spotty, no wired connection in room.  Eating table (no desk) is very small with chairs unsuited for working - but was provided a rolling chair when I requested one. Only one washer and dryer in hotel for guest use. Request a room away from traffic as rooms facing I-35 hear non-stop very loud traffic noise.  More</t>
   </si>
   <si>
-    <t>Patricia P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r369371187-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -890,9 +968,6 @@
     <t>First impression told us we were going to like this hotel.  The lobby was immaculate, reception was very friendly.  Our room was very clean and accommodating for me as I am handicapped.  Breakfasts were really good with a nice variety.  All of the staff were very friendly and everyone was so helpful to me.  Our intentions were to stay one day and move on to other places in the area but we returned for four more nights. Location was very convenient, close to restaurants in a nice quiet area.More</t>
   </si>
   <si>
-    <t>DWp1888</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r352228255-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -947,9 +1022,6 @@
     <t>The rooms were extremely clean and spacious.  The inn door pool was fairly large and clean.  We stayed in two different rooms one on the highway side and one on the front side during the week.  Ask for the front side rooms as they are much quieter.  The free morning breakfast was one of the best I've had in a motel of this class.More</t>
   </si>
   <si>
-    <t>Gary M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r328710335-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -977,9 +1049,6 @@
     <t>Nicely appointed clean room, comfortable beds and friendly staff. Thank you, General Manager Scott S., for assistance with our reservation change, and to Julie, who lays out the great breakfast, for allowing me to get some last-minute food to start my day. You guys rock!!More</t>
   </si>
   <si>
-    <t>RSJ999</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r328091573-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1004,19 +1073,28 @@
     <t>There's not a great lot to do in Alvarado But whatever there is this Holiday Inn expressIs right in the middle of itThe staff are friendly and the place is nice and cleanThe pool is a bonus Especially if you have kidsMore</t>
   </si>
   <si>
-    <t>petticoatpoms</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r324275613-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
     <t>324275613</t>
   </si>
   <si>
-    <t>November 3, 2015</t>
-  </si>
-  <si>
-    <t>OliviapWalker</t>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Front deck hospitality</t>
+  </si>
+  <si>
+    <t>We stayed a weekend in October and I had an event that required me to leave my 15 and 13 year old there for a few hours. I asked a front desk worker, Shanna D. to keep an eye on my teens making sure they weren't roaming around the parking lot too long. She was wonderful and went the extra mile. My oldest said she asked where they were headed each time they passed the lobby. Kind lady and attentive! The rooms were clean, beds comfy, and fast service when we asked for extra towels. Great place to stay on vacation!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>We stayed a weekend in October and I had an event that required me to leave my 15 and 13 year old there for a few hours. I asked a front desk worker, Shanna D. to keep an eye on my teens making sure they weren't roaming around the parking lot too long. She was wonderful and went the extra mile. My oldest said she asked where they were headed each time they passed the lobby. Kind lady and attentive! The rooms were clean, beds comfy, and fast service when we asked for extra towels. Great place to stay on vacation!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r317622133-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1046,9 +1124,6 @@
     <t>I have been traveling a lot for work and been staying Monday through Friday at the Holiday Inn Express in Alvaredo Texas.  From the moment you walk in the door, you feel at home. The manager Scott is fantastic and always attentive to the needs of his customers. Tim absolutely makes me feel like a rockstar! He goes out of his way to make sure my stay is comfortable and the best it can be. That's why I keep going back. Thanks to you all!!!!More</t>
   </si>
   <si>
-    <t>J H M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r317151651-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1067,9 +1142,6 @@
     <t>Stayed here during a weekend conference and it was delighted on the guest room and especially the service.  Everyone looked clean and professional and was friendly at every encounter.  This is the place to stay when in Alvarado!More</t>
   </si>
   <si>
-    <t>mas4467</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r316924071-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1091,9 +1163,6 @@
     <t>Stayed here twice in the last week while in and out of the area on business.  Front desk staff is always pleasant and friendly.  Large rooms, clean, good bedding package and soft towels.  Comfortable area to sit and watch TV.  Room rates are very reasonable for the area.More</t>
   </si>
   <si>
-    <t>Mike W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r311679334-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1121,7 +1190,122 @@
     <t>As a frequent traveler, I can not say enough good things about this hotel.  The indoor hot tub was very relaxing after a long day of my work meetings.  The staff was fantastic.  You can tell they really care about their job and made me feel at home.  They genuinely cared about my stay and greeted me every time I saw them.  Stay here!More</t>
   </si>
   <si>
-    <t>johnwesleyharden</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r311675261-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>311675261</t>
+  </si>
+  <si>
+    <t>Friendly, helpful staff makes the difference!</t>
+  </si>
+  <si>
+    <t>We stayed a few nights in Alvarado while on a quick shopping trip back in the US. Alvarado is smack-dab in the middle of RV dealerships (which we wanted to check out) and close enough to Dallas/Ft Worth/Arlington/others that we could also get some regular shopping done. Based on the reviews, we chose the HIE Alvarado. Wow! It turned out to be a very good choice. 
+Quite frankly, usually a hotel is a hotel is a hotel with the a few variations. In the case of the Holiday Inn Express &amp; Suites Alvarado, it was so much more. The biggest reason was the staff. Everyone at the front desk never failed to greet us as we came and went. More importantly, they were incredibly helpful when I had a problem shipping my "package from hell," especially Shanna who said that she would personally make sure that it went out. It worked (online verification with the shipper)! The other three, Brian, Tim and Harrison, also kept a sharp eye on the package while it waited for some shipping bugs to be worked out between the seller and the shipping service. I was leaving before it was finally settled and knowing that folks were watching out for me was a major relief.
+Victoria and Magda never failed to keep the breakfast items supplied, fresh and plentiful. We've stayed at hotels where it seemed like food was rationed and if you weren't there...We stayed a few nights in Alvarado while on a quick shopping trip back in the US. Alvarado is smack-dab in the middle of RV dealerships (which we wanted to check out) and close enough to Dallas/Ft Worth/Arlington/others that we could also get some regular shopping done. Based on the reviews, we chose the HIE Alvarado. Wow! It turned out to be a very good choice. Quite frankly, usually a hotel is a hotel is a hotel with the a few variations. In the case of the Holiday Inn Express &amp; Suites Alvarado, it was so much more. The biggest reason was the staff. Everyone at the front desk never failed to greet us as we came and went. More importantly, they were incredibly helpful when I had a problem shipping my "package from hell," especially Shanna who said that she would personally make sure that it went out. It worked (online verification with the shipper)! The other three, Brian, Tim and Harrison, also kept a sharp eye on the package while it waited for some shipping bugs to be worked out between the seller and the shipping service. I was leaving before it was finally settled and knowing that folks were watching out for me was a major relief.Victoria and Magda never failed to keep the breakfast items supplied, fresh and plentiful. We've stayed at hotels where it seemed like food was rationed and if you weren't there before the thundering hordes, too bad. The breakfast room was also kept immaculate, with plenty copies of the daily paper available for anyone who wanted one.   The entire hotel was extremely clean and well maintained, especially our room. I'm sorry that I don't know the name of the person who did such a super job, but I hope the hotel reads this and credits her/him. The pool and hot tub were a nice way to end the day. My only VERY SMALL complaint there is that the shower doesn't work in the pool bathroom; however, to be fair, I believe they were doing work there, so that may have since been fixed. Well done, HIE&amp;S Alvarado!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded September 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2015</t>
+  </si>
+  <si>
+    <t>We stayed a few nights in Alvarado while on a quick shopping trip back in the US. Alvarado is smack-dab in the middle of RV dealerships (which we wanted to check out) and close enough to Dallas/Ft Worth/Arlington/others that we could also get some regular shopping done. Based on the reviews, we chose the HIE Alvarado. Wow! It turned out to be a very good choice. 
+Quite frankly, usually a hotel is a hotel is a hotel with the a few variations. In the case of the Holiday Inn Express &amp; Suites Alvarado, it was so much more. The biggest reason was the staff. Everyone at the front desk never failed to greet us as we came and went. More importantly, they were incredibly helpful when I had a problem shipping my "package from hell," especially Shanna who said that she would personally make sure that it went out. It worked (online verification with the shipper)! The other three, Brian, Tim and Harrison, also kept a sharp eye on the package while it waited for some shipping bugs to be worked out between the seller and the shipping service. I was leaving before it was finally settled and knowing that folks were watching out for me was a major relief.
+Victoria and Magda never failed to keep the breakfast items supplied, fresh and plentiful. We've stayed at hotels where it seemed like food was rationed and if you weren't there...We stayed a few nights in Alvarado while on a quick shopping trip back in the US. Alvarado is smack-dab in the middle of RV dealerships (which we wanted to check out) and close enough to Dallas/Ft Worth/Arlington/others that we could also get some regular shopping done. Based on the reviews, we chose the HIE Alvarado. Wow! It turned out to be a very good choice. Quite frankly, usually a hotel is a hotel is a hotel with the a few variations. In the case of the Holiday Inn Express &amp; Suites Alvarado, it was so much more. The biggest reason was the staff. Everyone at the front desk never failed to greet us as we came and went. More importantly, they were incredibly helpful when I had a problem shipping my "package from hell," especially Shanna who said that she would personally make sure that it went out. It worked (online verification with the shipper)! The other three, Brian, Tim and Harrison, also kept a sharp eye on the package while it waited for some shipping bugs to be worked out between the seller and the shipping service. I was leaving before it was finally settled and knowing that folks were watching out for me was a major relief.Victoria and Magda never failed to keep the breakfast items supplied, fresh and plentiful. We've stayed at hotels where it seemed like food was rationed and if you weren't there before the thundering hordes, too bad. The breakfast room was also kept immaculate, with plenty copies of the daily paper available for anyone who wanted one.   The entire hotel was extremely clean and well maintained, especially our room. I'm sorry that I don't know the name of the person who did such a super job, but I hope the hotel reads this and credits her/him. The pool and hot tub were a nice way to end the day. My only VERY SMALL complaint there is that the shower doesn't work in the pool bathroom; however, to be fair, I believe they were doing work there, so that may have since been fixed. Well done, HIE&amp;S Alvarado!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r304439192-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>304439192</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>The staff was very helpful.  Had a nice swimming pool.  Close to restaurants and stores. Room was very nice and spacious.  Really enjoyed my stay with them.  Enjoyed the lovely breakfast.  We were only passing through so don't know much about things to see and do.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>The staff was very helpful.  Had a nice swimming pool.  Close to restaurants and stores. Room was very nice and spacious.  Really enjoyed my stay with them.  Enjoyed the lovely breakfast.  We were only passing through so don't know much about things to see and do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r296411590-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>296411590</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Experience!</t>
+  </si>
+  <si>
+    <t>Stayed at the Hotel for a couple of days while visiting family.  Staff went above and beyond in helping us with a variety of our needs.  Hotel was clean, breakfast was wonderful, and (again) AMAZING STAFF! Thanks to Tim, Harrison, Brian, and all of the other staff members that made our stay a great experience.  We will always stay here while visiting the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at the Hotel for a couple of days while visiting family.  Staff went above and beyond in helping us with a variety of our needs.  Hotel was clean, breakfast was wonderful, and (again) AMAZING STAFF! Thanks to Tim, Harrison, Brian, and all of the other staff members that made our stay a great experience.  We will always stay here while visiting the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r294971241-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>294971241</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Great night's sleep</t>
+  </si>
+  <si>
+    <t>We got in early in the morning and were exhausted . The room was cool and the bed was great! We had a very pleasant experience and want to thank; Shannon, Harrison, and Casey for making our stay . The only negative thing I have to say has nothing to do with the staff. I feel like the breakfast sausage and the biscuits had no flavor and the coffee is strong. Corporate needs to change up the breakfast because we stay at Holiday Inn Express a lot and the breakfast has been the same for years. Other than that we really enjoy staying at them!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>We got in early in the morning and were exhausted . The room was cool and the bed was great! We had a very pleasant experience and want to thank; Shannon, Harrison, and Casey for making our stay . The only negative thing I have to say has nothing to do with the staff. I feel like the breakfast sausage and the biscuits had no flavor and the coffee is strong. Corporate needs to change up the breakfast because we stay at Holiday Inn Express a lot and the breakfast has been the same for years. Other than that we really enjoy staying at them!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r294759565-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>294759565</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Shana and her teammates took great care of my mom and I while we were in town for a funeral.Breakfast was fresh and plentiful.  The public areas were clean and well maintained.Our room was very clean, but the vent in the bathroom didn't work.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shana and her teammates took great care of my mom and I while we were in town for a funeral.Breakfast was fresh and plentiful.  The public areas were clean and well maintained.Our room was very clean, but the vent in the bathroom didn't work.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r293802976-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1139,9 +1323,6 @@
     <t>Superior check.in, great front desk personel,  clean , well stocked room, super location, awesome ice cream vendor machines, immaculate swimming pool,  friendly breakfast attendant,  fitness room, business center,  little store, oh my. Simply one of the best!MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded July 30, 2015</t>
   </si>
   <si>
@@ -1151,9 +1332,6 @@
     <t>Superior check.in, great front desk personel,  clean , well stocked room, super location, awesome ice cream vendor machines, immaculate swimming pool,  friendly breakfast attendant,  fitness room, business center,  little store, oh my. Simply one of the best!More</t>
   </si>
   <si>
-    <t>MrsR1985</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r291556357-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1178,9 +1356,6 @@
     <t>Room was spacious and clean, bed was most comfortable, breakfast was great, staff was quite friendly.  We left our iPad on the desk, and did not realize it until we're were home in another state.  A phone call the next day was returned promptly by the manager, Scott, who located the iPad and said he would be glad to mail it to us.  He did, that day, and it is in our possession again...what a relief!  Thanks so much to Scott and his staff!  Super job!More</t>
   </si>
   <si>
-    <t>Lisa B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r290386261-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1202,9 +1377,6 @@
     <t>We really enjoyed our stay at Holiday Inn Express. The staff was very friendly. I was impressed with the room,it was clean and very comfortable. We slept great. They do a great job on their breakfast! Recommend staying here to anyone traveling to the Alvarado area.More</t>
   </si>
   <si>
-    <t>Cody A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r289799597-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1226,9 +1398,6 @@
     <t>The hotel is very nice and clean with very comfortable beds.  The indoor pool area was great for the kids to have some fun while taking a break from being on the road.  The staff is very friendly and I would recommend this hotel to any type of traveler.More</t>
   </si>
   <si>
-    <t>Michelle f</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r289556478-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1256,7 +1425,532 @@
     <t>Stayed a few nights here and would recommend this hotel to anyone.  Very clean,  breakfast was great. Very kid friendly.  The front desk greats you with a smile every time you walk in.  Every morning we were asked if everything was going good.  Shanna and Tim were amazing in answering any questions we had.  House keeping even greeted us every morning.  The pool area was fun for the kids.More</t>
   </si>
   <si>
-    <t>n s</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r289555448-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>289555448</t>
+  </si>
+  <si>
+    <t>Great place to stay for multiple nights</t>
+  </si>
+  <si>
+    <t>I took my family there to stay a few nights.  The staff was great and friendly.  Always presented themselves professionally.  Shanna the assistant manager was friendly and answered any questions or concerns we had about our stay.  Another plus of this establishment was the hot breakfast every morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>I took my family there to stay a few nights.  The staff was great and friendly.  Always presented themselves professionally.  Shanna the assistant manager was friendly and answered any questions or concerns we had about our stay.  Another plus of this establishment was the hot breakfast every morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r289520273-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>289520273</t>
+  </si>
+  <si>
+    <t>Excellant service and staff</t>
+  </si>
+  <si>
+    <t>I used reward points recieved during business travel to reserve three rooms for my family on our way to and from Padre Island.  The rooms were large, clean and smelled good.  The lobby and pool  area were also clean and well-maintained.  The best part of this hotel, though, is the staff.  Everyone from the front desk clerks to the breakfast staff to the manager were friendly and eager to respond to guest requests.  Examples of this helpful attitude are the breakfast staff person asked if anyone wanted anything else from the buffet area before she put things away, the evening desk clerk allowed my family to watch the All-Star game on the large screen in the breakfast area instead of the smaller screens in our separate rooms and the manager quickly found an item my daughter had left the week before when we asked about it.  I definintely plan to stay at this hotel the next time I travel from Kansas City to Padre Island.MoreShow less</t>
+  </si>
+  <si>
+    <t>I used reward points recieved during business travel to reserve three rooms for my family on our way to and from Padre Island.  The rooms were large, clean and smelled good.  The lobby and pool  area were also clean and well-maintained.  The best part of this hotel, though, is the staff.  Everyone from the front desk clerks to the breakfast staff to the manager were friendly and eager to respond to guest requests.  Examples of this helpful attitude are the breakfast staff person asked if anyone wanted anything else from the buffet area before she put things away, the evening desk clerk allowed my family to watch the All-Star game on the large screen in the breakfast area instead of the smaller screens in our separate rooms and the manager quickly found an item my daughter had left the week before when we asked about it.  I definintely plan to stay at this hotel the next time I travel from Kansas City to Padre Island.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r289516615-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>289516615</t>
+  </si>
+  <si>
+    <t>Worth the extra money</t>
+  </si>
+  <si>
+    <t>Although this hotel is a few dollars more then other Alvarado hotels, the service and experience is worth it.  I typically stay at which ever hotel is easier to get to and was lucky to stumble across the Holiday Inn Express in Alvarado.  I was impressed with the level of service from all staff including management.  You can tell they have a good team by how they interacted with guests and each other during every encounter.MoreShow less</t>
+  </si>
+  <si>
+    <t>Although this hotel is a few dollars more then other Alvarado hotels, the service and experience is worth it.  I typically stay at which ever hotel is easier to get to and was lucky to stumble across the Holiday Inn Express in Alvarado.  I was impressed with the level of service from all staff including management.  You can tell they have a good team by how they interacted with guests and each other during every encounter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r289196228-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>289196228</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Best Service Experience</t>
+  </si>
+  <si>
+    <t>Unexpected overnight stop.  I experienced large clean rooms and all staff, from front desk, housekeeping, and breakfast lady was fantastic!  Highly recommend this hotel to anyone needing a place to rest between Fort Worth and Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Unexpected overnight stop.  I experienced large clean rooms and all staff, from front desk, housekeeping, and breakfast lady was fantastic!  Highly recommend this hotel to anyone needing a place to rest between Fort Worth and Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r288996291-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>288996291</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Love the décor selection of this hotel.  Very Clean, friendly staff and I would definitely like to come back and stay for some vacation days.  This hotel is in a great location and easy access to main Highways.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Love the décor selection of this hotel.  Very Clean, friendly staff and I would definitely like to come back and stay for some vacation days.  This hotel is in a great location and easy access to main Highways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r288882223-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>288882223</t>
+  </si>
+  <si>
+    <t>Conference room/business center</t>
+  </si>
+  <si>
+    <t>I have used this Conference room on several occasions. The Wifi is excellent. The tables, notepads, pens are always set up and provided. They have ample electrical outlets for charging phones or laptops. The room is always comfortable, clean and has quality. I highly recommend this hotel for your stay, business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have used this Conference room on several occasions. The Wifi is excellent. The tables, notepads, pens are always set up and provided. They have ample electrical outlets for charging phones or laptops. The room is always comfortable, clean and has quality. I highly recommend this hotel for your stay, business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r287698692-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>287698692</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Great stay!!!</t>
+  </si>
+  <si>
+    <t>I really believe this is the best hotel in the area for sure! I have stayed at many around this area and by far was treated the best here! Very reasonable pricing and the staff is great. Beds are so comfortable, rooms are extremely clean. I will always book with this hotel when I am in and around this area! Thanks holiday inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>I really believe this is the best hotel in the area for sure! I have stayed at many around this area and by far was treated the best here! Very reasonable pricing and the staff is great. Beds are so comfortable, rooms are extremely clean. I will always book with this hotel when I am in and around this area! Thanks holiday inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r287375246-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>287375246</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Best hotel experience ever!</t>
+  </si>
+  <si>
+    <t>From check in to check out, the staff was so friendly and you could tell, actually care about you and your experience with them.  The whole hotel inside and out is immaculate. Spacious suites provide you with the best in comfort and amenities. Its  close to all kinds of dining, entertainment, shopping . I highly recommend you stay here while in town! I know I definitely I will again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>From check in to check out, the staff was so friendly and you could tell, actually care about you and your experience with them.  The whole hotel inside and out is immaculate. Spacious suites provide you with the best in comfort and amenities. Its  close to all kinds of dining, entertainment, shopping . I highly recommend you stay here while in town! I know I definitely I will again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r285151229-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>285151229</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Awesome place to stay.</t>
+  </si>
+  <si>
+    <t>Came to Alverado for a friends wedding and stayed here two nights.Hotel was very clean and staff was outstanding from front desk at check in to breakfast staff in morning.. plenty of delicious breakfast foods to enjoy..would highly recommend to any travelers passing through area...MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded July 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2015</t>
+  </si>
+  <si>
+    <t>Came to Alverado for a friends wedding and stayed here two nights.Hotel was very clean and staff was outstanding from front desk at check in to breakfast staff in morning.. plenty of delicious breakfast foods to enjoy..would highly recommend to any travelers passing through area...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r285147570-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>285147570</t>
+  </si>
+  <si>
+    <t>awesome!!!!!!</t>
+  </si>
+  <si>
+    <t>Great place! Excellent staff, clean rooms and terrific breakfast. Very accommodating and I highly recommend for family or business!!! Gym and pool were exceptionally clean. Great location for shopping ft worth Dallas or Cleburne!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Great place! Excellent staff, clean rooms and terrific breakfast. Very accommodating and I highly recommend for family or business!!! Gym and pool were exceptionally clean. Great location for shopping ft worth Dallas or Cleburne!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r285147067-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>285147067</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The hotel is nice, rooms are clean and comfortable. The staff is very attentive. There is a Continental breakfast provided. I recommend everyone stay here when visiting the area. Reservations and check in was fast.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is nice, rooms are clean and comfortable. The staff is very attentive. There is a Continental breakfast provided. I recommend everyone stay here when visiting the area. Reservations and check in was fast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r285145862-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>285145862</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>This place was wonderful!  Our room was very nice and very clean.  The staff was always nice as well.  They were kind enough to offer extra towels for the pool without our having to ask.  I think it was one of the best hotel stays I have experienced.  Very pleased and will continue to stay in this hotel every time I visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place was wonderful!  Our room was very nice and very clean.  The staff was always nice as well.  They were kind enough to offer extra towels for the pool without our having to ask.  I think it was one of the best hotel stays I have experienced.  Very pleased and will continue to stay in this hotel every time I visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r285143874-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>285143874</t>
+  </si>
+  <si>
+    <t>Awesome hotel! Best in this area!</t>
+  </si>
+  <si>
+    <t>This hotel is awesome! Had great service, all the staff are very helpful. Rooms are great and beds are the most comfortable you will find. Will definitely stay here anytime I'm close to this area! Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is awesome! Had great service, all the staff are very helpful. Rooms are great and beds are the most comfortable you will find. Will definitely stay here anytime I'm close to this area! Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r279964229-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>279964229</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Beds and pillow heaven</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  From the moment we booked in Tim was so friendly and helpful.  The room was VERY spacious and clean. The breakfast was OK and we would recommend this hotelShanna was exceptionally friendly on our checkout MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded June 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2015</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  From the moment we booked in Tim was so friendly and helpful.  The room was VERY spacious and clean. The breakfast was OK and we would recommend this hotelShanna was exceptionally friendly on our checkout More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r244675359-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>244675359</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>RV Specialist</t>
+  </si>
+  <si>
+    <t>We arrived in Dallas with several challenges.  The one comforting and pleasant surprise was the reception we received here at the Holiday Inn. Originally we had reservations at a different hotel. We were not sure which one.  The general manager graciously called every hotel in the area and learned that we had no reservations.They offered us a room at a reasonable rate. The accommodations were great. Highly recommend this venue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded December 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2014</t>
+  </si>
+  <si>
+    <t>We arrived in Dallas with several challenges.  The one comforting and pleasant surprise was the reception we received here at the Holiday Inn. Originally we had reservations at a different hotel. We were not sure which one.  The general manager graciously called every hotel in the area and learned that we had no reservations.They offered us a room at a reasonable rate. The accommodations were great. Highly recommend this venue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r236425530-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>236425530</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>We could not have been more pleased with staff members Brianna &amp; Keagan. Booking.com totally screwed up our reservations. Brianna went over &amp; beyond to make it right! Keagan checked us in &amp; couldn't have been any more pleasant. The room was excellent. The bed was like sleeping on clouds. Very very pleased. Thank you Brianna &amp; Keagan for all you did!MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>We could not have been more pleased with staff members Brianna &amp; Keagan. Booking.com totally screwed up our reservations. Brianna went over &amp; beyond to make it right! Keagan checked us in &amp; couldn't have been any more pleasant. The room was excellent. The bed was like sleeping on clouds. Very very pleased. Thank you Brianna &amp; Keagan for all you did!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r235553520-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>235553520</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed at this property in June/2014. Upon a late arrival I was exhausted and disappointed. Bed was single sheeted, nothing between me and a pillow top mattress with hair stuck on it but one thin sheet. The MOD triple sheeted the bed for me as housekeeping was not there. He was very professional, apologetic and friendly. As with most limited service properties the sheets smell heavy of bleach which kills my sinus', I bought my own the next day.My room was apparently over the laundry facility as the bed vibrated badly with each load.The breakfast was fine and the hotel was clean. I would stay here again because the staff is wonderful, I would just make certain to bring my own sheets and ask for a room not above the laundry.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded November 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this property in June/2014. Upon a late arrival I was exhausted and disappointed. Bed was single sheeted, nothing between me and a pillow top mattress with hair stuck on it but one thin sheet. The MOD triple sheeted the bed for me as housekeeping was not there. He was very professional, apologetic and friendly. As with most limited service properties the sheets smell heavy of bleach which kills my sinus', I bought my own the next day.My room was apparently over the laundry facility as the bed vibrated badly with each load.The breakfast was fine and the hotel was clean. I would stay here again because the staff is wonderful, I would just make certain to bring my own sheets and ask for a room not above the laundry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r230537980-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>230537980</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Very nice place to stay!!</t>
+  </si>
+  <si>
+    <t>The rooms are large, clean, and modern with mini fridges and microwaves. Beds were very comfortable and staff was very friendly. It is located close to several places to eat.  I would recommend this hotel to anyone and we will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>The rooms are large, clean, and modern with mini fridges and microwaves. Beds were very comfortable and staff was very friendly. It is located close to several places to eat.  I would recommend this hotel to anyone and we will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r227821392-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>227821392</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>A GREAT STAY AFTER A WEARY DAY</t>
+  </si>
+  <si>
+    <t>mary , the clerk , was very pleasant and helpfull ..........she gave us a room on the first floor as per our request.............Bed was very comfy.......Breakfast was good......... coffee was great.........WE USED THE TRAVEL COUPON BOOK FOR 25% OFF....VERY GOOD VALUE...MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>mary , the clerk , was very pleasant and helpfull ..........she gave us a room on the first floor as per our request.............Bed was very comfy.......Breakfast was good......... coffee was great.........WE USED THE TRAVEL COUPON BOOK FOR 25% OFF....VERY GOOD VALUE...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r220540170-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>220540170</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Great stay for weary family with flat tire</t>
+  </si>
+  <si>
+    <t>Driving through the area we had a flat and the spare was not holding air.  So we stopped in and Lisa was a big help.  She made us feel comfortable and even looked up a list of repair shops..  the room and breakfast were great too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Driving through the area we had a flat and the spare was not holding air.  So we stopped in and Lisa was a big help.  She made us feel comfortable and even looked up a list of repair shops..  the room and breakfast were great too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r209714570-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>209714570</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Excellent overnight stay on A road trip</t>
+  </si>
+  <si>
+    <t>Staff very friendly and accommodating.Place seems new so everything warmed as expected. The bed was extremely comfortable.Breakfast was typical HIE. Direct TV offered adequate channel selection. Nearby dining selections were fairly limited. Price was fair.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Staff very friendly and accommodating.Place seems new so everything warmed as expected. The bed was extremely comfortable.Breakfast was typical HIE. Direct TV offered adequate channel selection. Nearby dining selections were fairly limited. Price was fair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r206829157-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>206829157</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>A Wonderful Retreat for Weary Travelors</t>
+  </si>
+  <si>
+    <t>The staff is friendly and very accommodating. We were very weary after fighting 5 PM traffic in Ft. Worth, This hotel is exceptional and far surpasses other brands of hotels. The rooms are first class. They have Directv and you can access the guide and have a multitude of channels that is much more than hotels usually offer. We would like to mention. how friendly Magda at the breakfast area is and so helpful. Shanna at the front desk is exceptional. Mitchell keeps everything spotless. We will certainly stay here again when we come this way.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded May 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2014</t>
+  </si>
+  <si>
+    <t>The staff is friendly and very accommodating. We were very weary after fighting 5 PM traffic in Ft. Worth, This hotel is exceptional and far surpasses other brands of hotels. The rooms are first class. They have Directv and you can access the guide and have a multitude of channels that is much more than hotels usually offer. We would like to mention. how friendly Magda at the breakfast area is and so helpful. Shanna at the front desk is exceptional. Mitchell keeps everything spotless. We will certainly stay here again when we come this way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r204128693-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>204128693</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>A great place to stay!!!! The breakfast was amazing, the service was outstanding. Rooms and pool area were clean and furnishing were perfect. I chatted with guest and they were return visitors. One stated would not stay anywhere else!!! I highly recommend this hotel for business or pleasure.Diann ChoateMoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2014</t>
+  </si>
+  <si>
+    <t>A great place to stay!!!! The breakfast was amazing, the service was outstanding. Rooms and pool area were clean and furnishing were perfect. I chatted with guest and they were return visitors. One stated would not stay anywhere else!!! I highly recommend this hotel for business or pleasure.Diann ChoateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r203594737-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>203594737</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Work trip in Alvarad</t>
+  </si>
+  <si>
+    <t>Hotel accomodations were exceptional, location is good for halliburton work.  If you want to be close to more food options stay in Burleson it has a larger choice and more of a nightlife.  Spa/workout room is upto date with new equipment.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Hotel accomodations were exceptional, location is good for halliburton work.  If you want to be close to more food options stay in Burleson it has a larger choice and more of a nightlife.  Spa/workout room is upto date with new equipment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r201998807-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
+  </si>
+  <si>
+    <t>201998807</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>The hotel is your average holiday inn express hotel. The night we stayed the internet was down and the girl at the front desk had no clue when it would be back up...really not sure if it came up or not.  The free breakfast was nice, something for everyone.  Beds were comfortable, the shower didn't have a lot of pressure.  Overall not a bad one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded April 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is your average holiday inn express hotel. The night we stayed the internet was down and the girl at the front desk had no clue when it would be back up...really not sure if it came up or not.  The free breakfast was nice, something for everyone.  Beds were comfortable, the shower didn't have a lot of pressure.  Overall not a bad one night stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r199753724-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1274,9 +1968,6 @@
     <t>I would have given this hotel a 5 star rating but could not do so because the cleaning staff needs some training in cleaning. But I cleaned up. Upon arrival they were out of carts but the manager gathered up a few maids and she helped as well carry in our things WOW!! They offered and helped. The BED WAS SUPER COMFORTABLE and I am picky due to a bad back and we have a sleep number at home. The staff at the front desk greet you every time you come in or out. FriendlyI would recommend this hotel any day but you might have to do a little cleaning.  MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded April 7, 2014</t>
   </si>
   <si>
@@ -1313,9 +2004,6 @@
     <t>I have stayed here several times, the staff is very helpful and freiendly.  Generally get in late and leave early.  Bedding package is new and comfortable, breakfast is standard Holiday Inn Express but the staff and the servers make it very enjoyable to stay here.More</t>
   </si>
   <si>
-    <t>Carolyn W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r188473488-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1337,9 +2025,6 @@
     <t>My husband and I stayed over the Christmas Holiday to be close to family who live nearby. The hotel is fairly new so thought it would be a good choice, however on returning to our room on a Sunday evening our room had been cleaned, trash emptied and fresh towels but our bed not made. Being a Sunday and probably short staffed we didn't complain but the same thing happened on Monday evening. We do not expect a sheet change but at least make the bed. We called the front desk and was told "I'll make a note of that". On check out my husband issued a complaint again and there had been no note made previously. We usually find the Holiday Inns clean and comfortably for short stays but was disappointed with this one. On check out we were told that maybe we could get some extra points for compensation which was okay and a nice offer. Within 10 minutes of driving away we got a phone call and the desk clerk said the hotel would be happy to comp one free night of the 2 nights. Wow, now that is the way to take care of customers. Also, need to add, while my husband was checking out and making his complaint, the head housekeeper was called in to listen to his complaint. That was impressive. Yes, we will stay there again due to the good management and the...My husband and I stayed over the Christmas Holiday to be close to family who live nearby. The hotel is fairly new so thought it would be a good choice, however on returning to our room on a Sunday evening our room had been cleaned, trash emptied and fresh towels but our bed not made. Being a Sunday and probably short staffed we didn't complain but the same thing happened on Monday evening. We do not expect a sheet change but at least make the bed. We called the front desk and was told "I'll make a note of that". On check out my husband issued a complaint again and there had been no note made previously. We usually find the Holiday Inns clean and comfortably for short stays but was disappointed with this one. On check out we were told that maybe we could get some extra points for compensation which was okay and a nice offer. Within 10 minutes of driving away we got a phone call and the desk clerk said the hotel would be happy to comp one free night of the 2 nights. Wow, now that is the way to take care of customers. Also, need to add, while my husband was checking out and making his complaint, the head housekeeper was called in to listen to his complaint. That was impressive. Yes, we will stay there again due to the good management and the friendly desk clerks. When there is a complaint I wish everyone would take it as serious as this team. Thank you.More</t>
   </si>
   <si>
-    <t>transientangel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r184714909-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1361,9 +2046,6 @@
     <t>The stay I had in this Holiday Inn was the most positive hotel experience I have ever had. Check in and out went seamlessly. The staff and the manager were all very pleasant, helpful and accommodating. My room and the hotel its self were very neat and clean. My bed was oh so comfortable and my room was quiet and peaceful. Breakfast was delicious and right on time. Even the grounds and parking lot were neat and clean. I have done a lot of traveling and stayed in many a  hotel and I can honestly say this ranks right up there with the best of them. You can't go wrong here.More</t>
   </si>
   <si>
-    <t>steven r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r163792771-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1403,9 +2085,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>RonTX-FL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r155359750-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1421,18 +2100,9 @@
     <t>Stayed at this hotel, 3/14-3/17/2013, and was pleased by the clean &amp; well-kept property. Friendly front desk staff on all days.  At first look, I thought this hotel had to have been open less than 12-months...but was totally surprised to find out that it has been open since 2010. Room was very clean, and serviced properly during our stay. Breakfast bar was well-supplied, with a generous selection, thorough the advertised morning availability...did not run out of anything. Coffee was somewhat tasteless. The WiFi did shutdown while we were there...but "stuff happens"... not the end of the world. Adequate parking for all sizes of vehicles.MoreShow less</t>
   </si>
   <si>
-    <t>Scott S, General Manager at Holiday Inn Express Hotel &amp; Suites Alvarado, responded to this reviewResponded May 8, 2014</t>
-  </si>
-  <si>
-    <t>Responded May 8, 2014</t>
-  </si>
-  <si>
     <t>Stayed at this hotel, 3/14-3/17/2013, and was pleased by the clean &amp; well-kept property. Friendly front desk staff on all days.  At first look, I thought this hotel had to have been open less than 12-months...but was totally surprised to find out that it has been open since 2010. Room was very clean, and serviced properly during our stay. Breakfast bar was well-supplied, with a generous selection, thorough the advertised morning availability...did not run out of anything. Coffee was somewhat tasteless. The WiFi did shutdown while we were there...but "stuff happens"... not the end of the world. Adequate parking for all sizes of vehicles.More</t>
   </si>
   <si>
-    <t>xTraveLoverx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r152548672-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1460,9 +2130,6 @@
     <t>Check in wasn't overly friendly and my priority membershp wasn't acknowledged.Wifi was spotty and slow.Loud and disruptive party staying on our floor made sleep difficult. Called down to the front desk and the problem was not resolved, if anything their party became louder.Property was clean but breakfast wasn't available until I believe after 7am weekends, ended up having to drive through McDonalds which was inconvenient.More</t>
   </si>
   <si>
-    <t>Travelinghotelguest</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r149661353-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1487,9 +2154,6 @@
     <t>The staff and management at this location are awful! We asked for towels for the pool and got bath mats!!! We were told the indoor pool was heated and it wasn't. They even told us it was fixed and it wasn't. It was freezing!!!We had our kids w/ us so this was the major draw.. There is something that just feels completely wrong about this place. There was a cop making a round around the hallways as well... Friends of the staff were in the lobby every time we walked thru.  The manager was supposed to call me and never did... More</t>
   </si>
   <si>
-    <t>Douglas G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r149387008-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1512,9 +2176,6 @@
   </si>
   <si>
     <t>My family stayed here on Jan 4, 2013 in two rooms on second floor.  Clerk said hotel was not full.  We could not sleep due to loud barking dog a few rooms down hallway.  Called desk clerk at midnight and asked for dog to be removed, noisy guests moved, or worst case move us.  Clerk went up to room, guests did not answer.  No other help given, my request to move ignored.  Called clerk again at 4:00 a.m. as no one could sleep.  Clerk said he'd gotten several complaints on the dog, but could not help us.  We checked out at 7:00 am, exhausted, and now having to drive in heavy fog--Thanks.  Left several messages for mananger--all unanswered.  Manager answered phone once, said let me get back to you in five minutes, never called me back.  Asst manager told me she would speak to manager and call be  back by noon--never called me back.  Finally pinned down asst mgr again, and she offerred to take $25 off our bill--no thanks.  I will  never stay at this hotel again--I'll try the Comfort Suites next door.  Can't believe a hotel does not have a plan to deal with unruly or noisy guests/pets impacting the rest of other guests, at least I didn't see any indication of a plan--or sleep!More</t>
-  </si>
-  <si>
-    <t>loves2laugh29</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r132739036-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1546,9 +2207,6 @@
 The security camera in the swimming pool area had been tampered with and moved so it only viewed a wall and not the pool.  There is no driveway for the hotel and it is hard to get to. You have to turn into the same driveway as another hotel and beer store and drive through one of their parking lots to get to the hotel.  They are located right on the freeway access...There are so many things wrong with this hotel.  I've stayed at other Holiday Inn Expresses and they've been great but the managers of this site are letting their guests down.  They are apparently family oriented and allow all their employees to bring their children to work with them. We booked five rooms for four nights and I saw the front desk staff sit in the common area all day watching TV, one staff member has a baby she lets crawl around on the front reception desk, and this same employee stand behind the front desk straightening her hair.  While the staff was fixing their hair and watching cartoons with their children on the morning we were to check out the elevator broke down.  We called the front desk twice asking for assistance and were ignored both times and left standing in the hall for 20 minutes just waiting - of course they couldn't be inconvenienced by the guests they were watching cartoons and straightening their hair.  The security camera in the swimming pool area had been tampered with and moved so it only viewed a wall and not the pool.  There is no driveway for the hotel and it is hard to get to. You have to turn into the same driveway as another hotel and beer store and drive through one of their parking lots to get to the hotel.  They are located right on the freeway access lane and the traffic noise in the morning is excessive.  Three of the rooms key-cards kept going out and we kept having to go back to reception everyday and get cards replaced.  One of my family members went to reception and asked for a key-card to a room that was another family members room and was handed it without answering any questions or showing any i.d. just given a card to someone elses room.   The hotel was clean and the staff was relatively friendly. But I will never stay at this facility again and would never recommend it to anyone.More</t>
   </si>
   <si>
-    <t>JRUT72286</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r131991750-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1565,9 +2223,6 @@
   </si>
   <si>
     <t>Stayed 6/12-6/13/12.My first trip for business travel to Texas landed me in Holiday Inn- Alvarado.  Building is practically new, must be within the last few years.  The Staff member was super nice.  Checkin and Checkout was fast and easy.  Try and get a room away from 35W, can be very loud with trucks all night.  Hotel met all of my needs and then some.  Used the business center and the fitness center.  A great hotel for a business traveler.  Should I return to the area, will reconsider staying here.  The rates were reasonable and there is plenty of parking.  My only complaint, the sink was leaky and dripped most of the night.  Cant complain much more.  Shame my meeting got me out of there before breakfast was served..More</t>
-  </si>
-  <si>
-    <t>twincitiestravler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r130551111-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1595,9 +2250,6 @@
 The pool area was spotless and very relaxing.  It was...I was recently here for a one night stay.  Check in was welcoming, accurate, and fast.  I am not even sure if the front desk agent had clocked in yet as we both came in at the same time.  She recognized my Priority Club Status.  This front desk agent was Marissa and she truly cares about her guests and making them feel like part of the family at this property.  She was a joy to chat with and really enhanced my stay at this property. She is another front desk agent that all hotel properties need that would result in the elimination of that complaint file. Professional but at the same time down-to-earth. My room was very large, spotless, and the bed was very comfortable.    I enjoyed the sofa sleeper in the room and all furniture was of top quality.  My room was on the back side of this hotel which is the interstate side but the noise really did not bother me and certainly was never awaken by any noise.  I needed a safe deposit box and Marissa assisted with this request.  There were a few glitches in the beginning but Marissa did not give up and kept me informed as to what was going on.  The box was finally opened and my materials deposited.  She followed protocol exactly as should be done--the problem was with the box itself.The pool area was spotless and very relaxing.  It was nice to enjoy after a long drive.  The two computers and printer offered was a nice addition to utilize.  The breakfast room was a very nice and relaxing place to sit and have breakfast.  Items available were both hot and cold and well maintained.  The food itself was good, filling and hot.  I really could not ask for more.  Location of this property was very convenient to a travellers needs.It is evident that management and staff care about their property, guests, and making your stay a most pleasant one.  I would highly recommend staying at this property in needing overnight accommodations or for even a longer stay.  You cannot go wrong here.More</t>
   </si>
   <si>
-    <t>BSpeaker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r127478942-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1616,9 +2268,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>Lora J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r126562057-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1637,9 +2286,6 @@
     <t>March 2012</t>
   </si>
   <si>
-    <t>herrington5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r126438175-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1653,9 +2299,6 @@
   </si>
   <si>
     <t>We stayed in March. We had our 3 children with us and got a suite and was perfect. The rooms were nice and clean., very roomy, and didnt have that gross hotel smell. The bed were comfortable. The staff we very friendly and were always wanting to help. They have continental breakfast that puts the rest to shame. Its more like a buffet and it is delish. The indoor pool is great for letting the kids swim during the freezing cold. Look forward to going back.</t>
-  </si>
-  <si>
-    <t>Rachel B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r122425432-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -1683,9 +2326,6 @@
  My husband arrived around 8:00, so we were relaxing in the room.  The room was clean, well decorated, and inviting.  A little while later the phone rang.  It was Josie at the front desk.  She wanted to remind us that dinner would be served soon and that they were looking forward to having us join them.   My husband and I were having such a good time, that we decided to stay at the Holiday Inn for New Year's instead of...My husband got on Travelocity and booked a room here for New Year's Eve because it was halfway between where he works and where we live.  He had to work late, but we planned on meeting around 8:00 at the hotel then leaving from there to go out dancing.  When I arrived around 5:45, I was greeted by Josie. (She was so nice!) She informed me that there would be a wine tasting from 6:30-7:30, bbq dinner at 8:30, dessert in the lobby at 10:30. and then a New Year's Welcome at midnight. (I believe that this was a fund raiser for Alvarado High School's ROTC program.)   What a nice surprise!  So, while I waited for my husband to arrive I went to the wine tasting. (My first one!) It was being hosted by Bruce Anderson of Sunset Winery (Burleson,Tx).  It was informative and fun. I also learned that they have monthly events and gatherings at the winery in Burleson.  My husband arrived around 8:00, so we were relaxing in the room.  The room was clean, well decorated, and inviting.  A little while later the phone rang.  It was Josie at the front desk.  She wanted to remind us that dinner would be served soon and that they were looking forward to having us join them.   My husband and I were having such a good time, that we decided to stay at the Holiday Inn for New Year's instead of going out dancing. We went to dinner. We sat with Mr. &amp; Mrs. James Spencer and guests. (Sponsors of this shindig.) The bbq was fabulous and was catered by Cass Stevens of Lillian,Texas.  The tables were beautifully decorated and we all donned party hats. The curtains on the windows were pulled back and we were treated to a professional fireworks display.  The manager, Kirk Williams, introduced us to his beautiful family and then invited us to join them in the lobby at 10:30 for desserts.  The husband and I went and it was so worth it. In the lobby, the ROTC had moved the tables back in order to create a dance floor.  The dj was a ROTC teacher from Mansfield-- a nice guy with a great voice--I hate that I can't remember his name.... Everyone was gathered around talking, singing, and dancing--old and young alike.  I spoke with Kirk's wife, Jacque, and she said she was so happy to have the family all together, "A family that plays together stays together."  She is so right about that.  It made me wish that we would have brought our boys with us.At midnight, we wished each other well and parted ways, but before doing so, I told Kirk Williams, "Who would have thought that we could have so much good, clean fun at a Holiday Inn Express in Alvarado, Texas?" :)I highly recommend this hotel.  It feels like you are among friends/family here.  It is so fresh and clean.  The only complaint I have is that it was a little difficult to turn into the hotel parking lot, but I realize that this is a new building and they haven't fixed that driveway yet.  I will stay here again.  I hope that they have a New Year's Eve party there again next year.  The husband and I will come and bring our boys.  We will stay safe inside--far away from the crazy midnight drivers. Mr. Williams--Thanks again for a most enjoyable evening.  Happy New Year to you, your family, and your wonderful staff.More</t>
   </si>
   <si>
-    <t>ourunner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r122406987-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1698,9 +2338,6 @@
     <t>Hotel has been open only a year so everything is new. As a Platinum  member I was upgraded to a larger exec room. Even though it was next to the Gym and the elevator we had a quiet night.Staff very friendly and helpful. Entrance a bit difficult to find in the dark .Northbound take the exit ramp, turn RIGHT then turn left into the MacDonalds area. Free internet, gym, pool and breakfast. Lots of fast food dining nearby + grocery store. Cannot fault this place.</t>
   </si>
   <si>
-    <t>mleuth</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r121623886-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1716,9 +2353,6 @@
     <t>Alvarado may not be the cherry spot -  it's "reason d'aitre" is the intersection. There aint nottin else. However that hotel is quite the place! Brand new, clean, modern, large rooms......</t>
   </si>
   <si>
-    <t>VinGins</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r121436213-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1737,9 +2371,6 @@
     <t>Nice, clean EVERYTHING!  From the rugs in the rooms, to the bed linens and towels, this place rocks. Great, comfortable bed. The rooms do not smell like old cigarette smoke or cleaning chemicals...probably because this is a new hotel. Everything you would expect from a nice hotel is right here. The staff was very nice and helpful. Two minor complaints...the fitness equipment was broken, and the cleaning maids knocked on our door even though we had requested a late checkout.  Missed breakfast, but the dining area looked inviting with a faux fireplace. (Tip...get rid of the TV in the dining area.  Why do we have to have tv's everywhere?) The pool is great for lap swimming, and the jacuzzi was relaxing, clean and just the right temp.  Will definately book here again.More</t>
   </si>
   <si>
-    <t>alikarim</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r120818264-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1758,9 +2389,6 @@
     <t>November 2011</t>
   </si>
   <si>
-    <t>travelingfam04</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r120112813-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1779,9 +2407,6 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t>DarnCatFish</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r117148455-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1800,9 +2425,6 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>cowgirllady</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r115690355-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1821,9 +2443,6 @@
     <t>May 2011</t>
   </si>
   <si>
-    <t>johnmari1983</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r109574048-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1839,9 +2458,6 @@
     <t>It was such a great hotel...........from friendly to clean.  Great rooms so clean and comfy</t>
   </si>
   <si>
-    <t>ldbruin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r109364668-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1857,9 +2473,6 @@
     <t>The staff here could not have been better. Very welcoming at check in and when we needed directions. Its not a huge hotel, and even though they were sold out the weekend we were there, nothing seemed too busy. The rooms are very spacious and modern. The bedding is extremely comfortable and there wasn't much outside noise. This hotel opened only less than a year ago so everything seems fresh and up to date. The pool area was also great and the hot tub is perfect! We visited Glen Rose and this hotel is only about 25-30 minutes away. Thank you for helping make our trip absolutely perfect/</t>
   </si>
   <si>
-    <t>meli33three</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r103421080-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
   </si>
   <si>
@@ -1873,9 +2486,6 @@
   </si>
   <si>
     <t>This place is very new, therefore very clean, and very quiet. The guy that checked us in was very friendly and helpful, as well! This is the best hotel experience we have had  in a long long time!</t>
-  </si>
-  <si>
-    <t>followmylead</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30162-d1945966-r95779526-Holiday_Inn_Express_Hotel_Suites_Alvarado-Alvarado_Texas.html</t>
@@ -2398,47 +3008,43 @@
       <c r="A2" t="n">
         <v>61056</v>
       </c>
-      <c r="B2" t="n">
-        <v>154982</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2449,48 +3055,48 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>61056</v>
       </c>
-      <c r="B3" t="n">
-        <v>22739</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -2507,39 +3113,35 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>61056</v>
       </c>
-      <c r="B4" t="n">
-        <v>154983</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
@@ -2560,7 +3162,7 @@
         <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2571,197 +3173,181 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" t="s">
-        <v>72</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>61056</v>
       </c>
-      <c r="B5" t="n">
-        <v>154984</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>61056</v>
       </c>
-      <c r="B6" t="n">
-        <v>5656</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>61056</v>
       </c>
-      <c r="B7" t="n">
-        <v>154985</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2773,137 +3359,123 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>61056</v>
       </c>
-      <c r="B8" t="n">
-        <v>154986</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>61056</v>
       </c>
-      <c r="B9" t="n">
-        <v>154987</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -2913,122 +3485,114 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>61056</v>
       </c>
-      <c r="B10" t="n">
-        <v>9582</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>129</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>61056</v>
       </c>
-      <c r="B11" t="n">
-        <v>71472</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
@@ -3037,72 +3601,74 @@
         <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>61056</v>
       </c>
-      <c r="B12" t="n">
-        <v>27870</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3114,129 +3680,117 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>61056</v>
       </c>
-      <c r="B13" t="n">
-        <v>154988</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>61056</v>
       </c>
-      <c r="B14" t="n">
-        <v>154989</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3248,57 +3802,57 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>61056</v>
       </c>
-      <c r="B15" t="n">
-        <v>28172</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -3309,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -3328,37 +3882,37 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3370,61 +3924,53 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="X16" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>61056</v>
       </c>
-      <c r="B17" t="n">
-        <v>154990</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>194</v>
-      </c>
-      <c r="O17" t="s">
-        <v>195</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -3435,140 +3981,124 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>61056</v>
       </c>
-      <c r="B18" t="n">
-        <v>22207</v>
-      </c>
-      <c r="C18" t="s">
-        <v>199</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>61056</v>
       </c>
-      <c r="B19" t="n">
-        <v>154991</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -3577,60 +4107,56 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>61056</v>
       </c>
-      <c r="B20" t="n">
-        <v>154992</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3642,61 +4168,53 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>61056</v>
       </c>
-      <c r="B21" t="n">
-        <v>154993</v>
-      </c>
-      <c r="C21" t="s">
-        <v>228</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>224</v>
-      </c>
-      <c r="O21" t="s">
-        <v>90</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
@@ -3707,272 +4225,254 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>61056</v>
       </c>
-      <c r="B22" t="n">
-        <v>154961</v>
-      </c>
-      <c r="C22" t="s">
-        <v>237</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>61056</v>
       </c>
-      <c r="B23" t="n">
-        <v>3267</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="X23" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="Y23" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>61056</v>
       </c>
-      <c r="B24" t="n">
-        <v>25284</v>
-      </c>
-      <c r="C24" t="s">
-        <v>253</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>61056</v>
       </c>
-      <c r="B25" t="n">
-        <v>22311</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>248</v>
       </c>
-      <c r="L25" t="s">
-        <v>267</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>214</v>
-      </c>
       <c r="O25" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
         <v>5</v>
       </c>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3981,57 +4481,57 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>61056</v>
       </c>
-      <c r="B26" t="n">
-        <v>154994</v>
-      </c>
-      <c r="C26" t="s">
-        <v>271</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
@@ -4042,149 +4542,141 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>61056</v>
       </c>
-      <c r="B27" t="n">
-        <v>6231</v>
-      </c>
-      <c r="C27" t="s">
-        <v>280</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="K27" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="X27" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="Y27" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>61056</v>
       </c>
-      <c r="B28" t="n">
-        <v>154995</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="X28" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="Y28" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
@@ -4197,44 +4689,44 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="J29" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -4243,185 +4735,177 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>61056</v>
       </c>
-      <c r="B30" t="n">
-        <v>1993</v>
-      </c>
-      <c r="C30" t="s">
-        <v>309</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="Y30" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>61056</v>
       </c>
-      <c r="B31" t="n">
-        <v>154996</v>
-      </c>
-      <c r="C31" t="s">
-        <v>319</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="J31" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>315</v>
+        <v>248</v>
       </c>
       <c r="O31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="X31" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>61056</v>
       </c>
-      <c r="B32" t="n">
-        <v>154997</v>
-      </c>
-      <c r="C32" t="s">
-        <v>328</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>331</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
-      <c r="M32" t="s"/>
+        <v>301</v>
+      </c>
+      <c r="K32" t="s">
+        <v>302</v>
+      </c>
+      <c r="L32" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
       <c r="N32" t="s"/>
       <c r="O32" t="s"/>
       <c r="P32" t="s"/>
@@ -4433,54 +4917,61 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
+      <c r="W32" t="s">
+        <v>304</v>
+      </c>
+      <c r="X32" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>61056</v>
       </c>
-      <c r="B33" t="n">
-        <v>154998</v>
-      </c>
-      <c r="C33" t="s">
-        <v>332</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="J33" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="K33" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="L33" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O33" t="s">
-        <v>109</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
@@ -4494,138 +4985,124 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="X33" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="Y33" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>61056</v>
       </c>
-      <c r="B34" t="n">
-        <v>154999</v>
-      </c>
-      <c r="C34" t="s">
-        <v>342</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="J34" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="K34" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="L34" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>61056</v>
       </c>
-      <c r="B35" t="n">
-        <v>145796</v>
-      </c>
-      <c r="C35" t="s">
-        <v>349</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="K35" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4634,66 +5111,62 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Y35" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>61056</v>
       </c>
-      <c r="B36" t="n">
-        <v>1216</v>
-      </c>
-      <c r="C36" t="s">
-        <v>357</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="K36" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="O36" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -4705,60 +5178,56 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="X36" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="Y36" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>61056</v>
       </c>
-      <c r="B37" t="n">
-        <v>155000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>367</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="J37" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4770,202 +5239,190 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="X37" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>61056</v>
       </c>
-      <c r="B38" t="n">
-        <v>155001</v>
-      </c>
-      <c r="C38" t="s">
-        <v>377</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="J38" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="K38" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="X38" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="Y38" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>61056</v>
       </c>
-      <c r="B39" t="n">
-        <v>9071</v>
-      </c>
-      <c r="C39" t="s">
-        <v>386</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="J39" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="K39" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="X39" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="Y39" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>61056</v>
       </c>
-      <c r="B40" t="n">
-        <v>50675</v>
-      </c>
-      <c r="C40" t="s">
-        <v>394</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="J40" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="K40" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4975,203 +5432,197 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="X40" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="Y40" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>61056</v>
       </c>
-      <c r="B41" t="n">
-        <v>155002</v>
-      </c>
-      <c r="C41" t="s">
-        <v>402</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="J41" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="K41" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="X41" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="Y41" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>61056</v>
       </c>
-      <c r="B42" t="n">
-        <v>48566</v>
-      </c>
-      <c r="C42" t="s">
-        <v>412</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="J42" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="K42" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="L42" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="X42" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="Y42" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>61056</v>
       </c>
-      <c r="B43" t="n">
-        <v>145796</v>
-      </c>
-      <c r="C43" t="s">
-        <v>349</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="J43" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="L43" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="O43" t="s">
-        <v>109</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
         <v>5</v>
       </c>
       <c r="R43" t="n">
         <v>5</v>
       </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -5180,131 +5631,123 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="X43" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="Y43" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>61056</v>
       </c>
-      <c r="B44" t="n">
-        <v>1837</v>
-      </c>
-      <c r="C44" t="s">
-        <v>431</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>402</v>
+      </c>
+      <c r="X44" t="s">
+        <v>403</v>
+      </c>
       <c r="Y44" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>61056</v>
       </c>
-      <c r="B45" t="n">
-        <v>155003</v>
-      </c>
-      <c r="C45" t="s">
-        <v>439</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5312,12 +5755,8 @@
       <c r="Q45" t="n">
         <v>5</v>
       </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -5325,654 +5764,562 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>411</v>
+      </c>
+      <c r="X45" t="s">
+        <v>412</v>
+      </c>
       <c r="Y45" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>61056</v>
       </c>
-      <c r="B46" t="n">
-        <v>155004</v>
-      </c>
-      <c r="C46" t="s">
-        <v>447</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="K46" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="O46" t="s">
-        <v>90</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>419</v>
+      </c>
+      <c r="X46" t="s">
+        <v>420</v>
+      </c>
       <c r="Y46" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>61056</v>
       </c>
-      <c r="B47" t="n">
-        <v>145796</v>
-      </c>
-      <c r="C47" t="s">
-        <v>349</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="J47" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="K47" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="O47" t="s">
-        <v>109</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>419</v>
+      </c>
+      <c r="X47" t="s">
+        <v>420</v>
+      </c>
       <c r="Y47" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>61056</v>
       </c>
-      <c r="B48" t="n">
-        <v>155005</v>
-      </c>
-      <c r="C48" t="s">
-        <v>461</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="J48" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="K48" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="L48" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="X48" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="Y48" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>61056</v>
       </c>
-      <c r="B49" t="n">
-        <v>155006</v>
-      </c>
-      <c r="C49" t="s">
-        <v>470</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="J49" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s">
-        <v>109</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="X49" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="Y49" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>61056</v>
       </c>
-      <c r="B50" t="n">
-        <v>155007</v>
-      </c>
-      <c r="C50" t="s">
-        <v>480</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
       <c r="K50" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>410</v>
+      </c>
+      <c r="O50" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>1</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
       <c r="X50" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="Y50" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>61056</v>
       </c>
-      <c r="B51" t="n">
-        <v>20205</v>
-      </c>
-      <c r="C51" t="s">
-        <v>489</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="K51" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="O51" t="s">
-        <v>90</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="X51" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="Y51" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>61056</v>
       </c>
-      <c r="B52" t="n">
-        <v>92084</v>
-      </c>
-      <c r="C52" t="s">
-        <v>498</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="J52" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="K52" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>3</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="X52" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="Y52" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>61056</v>
       </c>
-      <c r="B53" t="n">
-        <v>155008</v>
-      </c>
-      <c r="C53" t="s">
-        <v>508</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="K53" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="L53" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="O53" t="s">
-        <v>109</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>464</v>
+      </c>
+      <c r="X53" t="s">
+        <v>465</v>
+      </c>
       <c r="Y53" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>61056</v>
       </c>
-      <c r="B54" t="n">
-        <v>58288</v>
-      </c>
-      <c r="C54" t="s">
-        <v>515</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="J54" t="s">
-        <v>518</v>
+        <v>460</v>
       </c>
       <c r="K54" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="L54" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>521</v>
+        <v>410</v>
       </c>
       <c r="O54" t="s">
-        <v>195</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
         <v>4</v>
       </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>5</v>
@@ -5980,57 +6327,57 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>464</v>
+      </c>
+      <c r="X54" t="s">
+        <v>465</v>
+      </c>
       <c r="Y54" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>61056</v>
       </c>
-      <c r="B55" t="n">
-        <v>102401</v>
-      </c>
-      <c r="C55" t="s">
-        <v>523</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="J55" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="K55" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
       <c r="L55" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="O55" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6038,80 +6385,72 @@
       <c r="Q55" t="n">
         <v>5</v>
       </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>449</v>
+      </c>
+      <c r="X55" t="s">
+        <v>442</v>
+      </c>
       <c r="Y55" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>61056</v>
       </c>
-      <c r="B56" t="n">
-        <v>155009</v>
-      </c>
-      <c r="C56" t="s">
-        <v>530</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="J56" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="K56" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="L56" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>536</v>
+        <v>410</v>
       </c>
       <c r="O56" t="s">
-        <v>90</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="n">
         <v>5</v>
       </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
         <v>5</v>
       </c>
@@ -6122,64 +6461,60 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>449</v>
+      </c>
+      <c r="X56" t="s">
+        <v>442</v>
+      </c>
       <c r="Y56" t="s">
-        <v>535</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>61056</v>
       </c>
-      <c r="B57" t="n">
-        <v>155010</v>
-      </c>
-      <c r="C57" t="s">
-        <v>537</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="J57" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="K57" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="L57" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
       <c r="O57" t="s">
-        <v>90</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
         <v>5</v>
       </c>
@@ -6193,750 +6528,658 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>493</v>
+      </c>
+      <c r="X57" t="s">
+        <v>494</v>
+      </c>
       <c r="Y57" t="s">
-        <v>542</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>61056</v>
       </c>
-      <c r="B58" t="n">
-        <v>8997</v>
-      </c>
-      <c r="C58" t="s">
-        <v>543</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>544</v>
+        <v>496</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>545</v>
+        <v>497</v>
       </c>
       <c r="J58" t="s">
-        <v>546</v>
+        <v>490</v>
       </c>
       <c r="K58" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="L58" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>549</v>
+        <v>456</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>493</v>
+      </c>
+      <c r="X58" t="s">
+        <v>494</v>
+      </c>
       <c r="Y58" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>61056</v>
       </c>
-      <c r="B59" t="n">
-        <v>155011</v>
-      </c>
-      <c r="C59" t="s">
-        <v>551</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
       <c r="J59" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="K59" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="L59" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>549</v>
+        <v>410</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>506</v>
+      </c>
+      <c r="X59" t="s">
+        <v>507</v>
+      </c>
       <c r="Y59" t="s">
-        <v>555</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>61056</v>
       </c>
-      <c r="B60" t="n">
-        <v>155012</v>
-      </c>
-      <c r="C60" t="s">
-        <v>556</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="J60" t="s">
-        <v>559</v>
+        <v>511</v>
       </c>
       <c r="K60" t="s">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="L60" t="s">
-        <v>561</v>
+        <v>513</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="O60" t="s">
-        <v>54</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
       <c r="R60" t="n">
-        <v>3</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>506</v>
+      </c>
+      <c r="X60" t="s">
+        <v>507</v>
+      </c>
       <c r="Y60" t="s">
-        <v>561</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>61056</v>
       </c>
-      <c r="B61" t="n">
-        <v>155013</v>
-      </c>
-      <c r="C61" t="s">
-        <v>562</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
       <c r="J61" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
       <c r="K61" t="s">
-        <v>566</v>
+        <v>519</v>
       </c>
       <c r="L61" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>549</v>
+        <v>410</v>
       </c>
       <c r="O61" t="s">
-        <v>109</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>521</v>
+      </c>
+      <c r="X61" t="s">
+        <v>522</v>
+      </c>
       <c r="Y61" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>61056</v>
       </c>
-      <c r="B62" t="n">
-        <v>21870</v>
-      </c>
-      <c r="C62" t="s">
-        <v>569</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="J62" t="s">
-        <v>572</v>
+        <v>518</v>
       </c>
       <c r="K62" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="L62" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="O62" t="s">
-        <v>80</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>521</v>
+      </c>
+      <c r="X62" t="s">
+        <v>522</v>
+      </c>
       <c r="Y62" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>61056</v>
       </c>
-      <c r="B63" t="n">
-        <v>155014</v>
-      </c>
-      <c r="C63" t="s">
-        <v>576</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>577</v>
+        <v>530</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="J63" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="K63" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="L63" t="s">
-        <v>581</v>
+        <v>533</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>582</v>
+        <v>410</v>
       </c>
       <c r="O63" t="s">
-        <v>90</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>521</v>
+      </c>
+      <c r="X63" t="s">
+        <v>522</v>
+      </c>
       <c r="Y63" t="s">
-        <v>581</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>61056</v>
       </c>
-      <c r="B64" t="n">
-        <v>155015</v>
-      </c>
-      <c r="C64" t="s">
-        <v>583</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>584</v>
+        <v>535</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="J64" t="s">
-        <v>586</v>
+        <v>518</v>
       </c>
       <c r="K64" t="s">
-        <v>587</v>
+        <v>537</v>
       </c>
       <c r="L64" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>589</v>
+        <v>463</v>
       </c>
       <c r="O64" t="s">
-        <v>90</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>521</v>
+      </c>
+      <c r="X64" t="s">
+        <v>522</v>
+      </c>
       <c r="Y64" t="s">
-        <v>588</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>61056</v>
       </c>
-      <c r="B65" t="n">
-        <v>155016</v>
-      </c>
-      <c r="C65" t="s">
-        <v>590</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>592</v>
+        <v>541</v>
       </c>
       <c r="J65" t="s">
-        <v>593</v>
+        <v>518</v>
       </c>
       <c r="K65" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="L65" t="s">
-        <v>595</v>
+        <v>543</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="O65" t="s">
-        <v>90</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
       <c r="R65" t="s"/>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>521</v>
+      </c>
+      <c r="X65" t="s">
+        <v>522</v>
+      </c>
       <c r="Y65" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>61056</v>
       </c>
-      <c r="B66" t="n">
-        <v>155017</v>
-      </c>
-      <c r="C66" t="s">
-        <v>597</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>598</v>
+        <v>545</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="J66" t="s">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="K66" t="s">
-        <v>601</v>
+        <v>548</v>
       </c>
       <c r="L66" t="s">
-        <v>602</v>
+        <v>549</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="O66" t="s">
-        <v>109</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>5</v>
-      </c>
-      <c r="R66" t="n">
-        <v>5</v>
-      </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
-      <c r="U66" t="n">
-        <v>5</v>
-      </c>
+      <c r="U66" t="s"/>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>550</v>
+      </c>
+      <c r="X66" t="s">
+        <v>551</v>
+      </c>
       <c r="Y66" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>61056</v>
       </c>
-      <c r="B67" t="n">
-        <v>155018</v>
-      </c>
-      <c r="C67" t="s">
-        <v>603</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>604</v>
+        <v>553</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
       <c r="J67" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
       <c r="K67" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="L67" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
-      <c r="N67" t="s">
-        <v>596</v>
-      </c>
-      <c r="O67" t="s">
-        <v>90</v>
-      </c>
-      <c r="P67" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
-      <c r="R67" t="n">
-        <v>4</v>
-      </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="n">
-        <v>5</v>
-      </c>
+      <c r="U67" t="s"/>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>558</v>
+      </c>
+      <c r="X67" t="s">
+        <v>559</v>
+      </c>
       <c r="Y67" t="s">
-        <v>608</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>61056</v>
       </c>
-      <c r="B68" t="n">
-        <v>155019</v>
-      </c>
-      <c r="C68" t="s">
-        <v>609</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>610</v>
+        <v>561</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="J68" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="K68" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="L68" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6962,81 +7205,2503 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>566</v>
+      </c>
+      <c r="X68" t="s">
+        <v>567</v>
+      </c>
       <c r="Y68" t="s">
-        <v>614</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>61056</v>
       </c>
-      <c r="B69" t="n">
-        <v>155020</v>
-      </c>
-      <c r="C69" t="s">
-        <v>615</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="J69" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="K69" t="s">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="L69" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="O69" t="s">
-        <v>90</v>
-      </c>
-      <c r="P69" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>5</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
       <c r="R69" t="n">
-        <v>5</v>
-      </c>
-      <c r="S69" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>575</v>
+      </c>
+      <c r="X69" t="s">
+        <v>576</v>
+      </c>
       <c r="Y69" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>578</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>579</v>
+      </c>
+      <c r="J70" t="s">
+        <v>580</v>
+      </c>
+      <c r="K70" t="s">
+        <v>581</v>
+      </c>
+      <c r="L70" t="s">
+        <v>582</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>583</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>584</v>
+      </c>
+      <c r="X70" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>587</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>588</v>
+      </c>
+      <c r="J71" t="s">
+        <v>589</v>
+      </c>
+      <c r="K71" t="s">
+        <v>590</v>
+      </c>
+      <c r="L71" t="s">
+        <v>591</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>583</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>592</v>
+      </c>
+      <c r="X71" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>595</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>596</v>
+      </c>
+      <c r="J72" t="s">
+        <v>597</v>
+      </c>
+      <c r="K72" t="s">
+        <v>598</v>
+      </c>
+      <c r="L72" t="s">
+        <v>599</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>514</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>600</v>
+      </c>
+      <c r="X72" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>603</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>604</v>
+      </c>
+      <c r="J73" t="s">
+        <v>605</v>
+      </c>
+      <c r="K73" t="s">
+        <v>606</v>
+      </c>
+      <c r="L73" t="s">
+        <v>607</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>574</v>
+      </c>
+      <c r="O73" t="s">
+        <v>86</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>608</v>
+      </c>
+      <c r="X73" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>611</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>612</v>
+      </c>
+      <c r="J74" t="s">
+        <v>613</v>
+      </c>
+      <c r="K74" t="s">
+        <v>614</v>
+      </c>
+      <c r="L74" t="s">
+        <v>615</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>616</v>
+      </c>
+      <c r="O74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>617</v>
+      </c>
+      <c r="X74" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
         <v>620</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>621</v>
+      </c>
+      <c r="J75" t="s">
+        <v>622</v>
+      </c>
+      <c r="K75" t="s">
+        <v>623</v>
+      </c>
+      <c r="L75" t="s">
+        <v>624</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>616</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>625</v>
+      </c>
+      <c r="X75" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>628</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>629</v>
+      </c>
+      <c r="J76" t="s">
+        <v>630</v>
+      </c>
+      <c r="K76" t="s">
+        <v>631</v>
+      </c>
+      <c r="L76" t="s">
+        <v>632</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>633</v>
+      </c>
+      <c r="O76" t="s">
+        <v>111</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>617</v>
+      </c>
+      <c r="X76" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>635</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>636</v>
+      </c>
+      <c r="J77" t="s">
+        <v>637</v>
+      </c>
+      <c r="K77" t="s">
+        <v>638</v>
+      </c>
+      <c r="L77" t="s">
+        <v>639</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>633</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>640</v>
+      </c>
+      <c r="X77" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>643</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>644</v>
+      </c>
+      <c r="J78" t="s">
+        <v>645</v>
+      </c>
+      <c r="K78" t="s">
+        <v>646</v>
+      </c>
+      <c r="L78" t="s">
+        <v>647</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>633</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>648</v>
+      </c>
+      <c r="X78" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>651</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>652</v>
+      </c>
+      <c r="J79" t="s">
+        <v>653</v>
+      </c>
+      <c r="K79" t="s">
+        <v>654</v>
+      </c>
+      <c r="L79" t="s">
+        <v>655</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>656</v>
+      </c>
+      <c r="O79" t="s">
+        <v>111</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>657</v>
+      </c>
+      <c r="X79" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>660</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>661</v>
+      </c>
+      <c r="J80" t="s">
+        <v>662</v>
+      </c>
+      <c r="K80" t="s">
+        <v>663</v>
+      </c>
+      <c r="L80" t="s">
+        <v>664</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>665</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>667</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>668</v>
+      </c>
+      <c r="J81" t="s">
+        <v>669</v>
+      </c>
+      <c r="K81" t="s">
+        <v>670</v>
+      </c>
+      <c r="L81" t="s">
+        <v>671</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>672</v>
+      </c>
+      <c r="O81" t="s">
+        <v>174</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>674</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>675</v>
+      </c>
+      <c r="J82" t="s">
+        <v>676</v>
+      </c>
+      <c r="K82" t="s">
+        <v>677</v>
+      </c>
+      <c r="L82" t="s">
+        <v>678</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>679</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>681</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>682</v>
+      </c>
+      <c r="J83" t="s">
+        <v>683</v>
+      </c>
+      <c r="K83" t="s">
+        <v>684</v>
+      </c>
+      <c r="L83" t="s">
+        <v>685</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>686</v>
+      </c>
+      <c r="O83" t="s">
+        <v>111</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>687</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>688</v>
+      </c>
+      <c r="J84" t="s">
+        <v>689</v>
+      </c>
+      <c r="K84" t="s">
+        <v>690</v>
+      </c>
+      <c r="L84" t="s">
+        <v>691</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>686</v>
+      </c>
+      <c r="O84" t="s">
+        <v>86</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>625</v>
+      </c>
+      <c r="X84" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>693</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>694</v>
+      </c>
+      <c r="J85" t="s">
+        <v>695</v>
+      </c>
+      <c r="K85" t="s">
+        <v>696</v>
+      </c>
+      <c r="L85" t="s">
+        <v>697</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>698</v>
+      </c>
+      <c r="O85" t="s">
+        <v>111</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>699</v>
+      </c>
+      <c r="X85" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>702</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>703</v>
+      </c>
+      <c r="J86" t="s">
+        <v>704</v>
+      </c>
+      <c r="K86" t="s">
+        <v>705</v>
+      </c>
+      <c r="L86" t="s">
+        <v>706</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>707</v>
+      </c>
+      <c r="X86" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>710</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>711</v>
+      </c>
+      <c r="J87" t="s">
+        <v>712</v>
+      </c>
+      <c r="K87" t="s">
+        <v>713</v>
+      </c>
+      <c r="L87" t="s">
+        <v>714</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>698</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>715</v>
+      </c>
+      <c r="X87" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>718</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>719</v>
+      </c>
+      <c r="J88" t="s">
+        <v>720</v>
+      </c>
+      <c r="K88" t="s">
+        <v>721</v>
+      </c>
+      <c r="L88" t="s">
+        <v>722</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>723</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>724</v>
+      </c>
+      <c r="X88" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>727</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>728</v>
+      </c>
+      <c r="J89" t="s">
+        <v>729</v>
+      </c>
+      <c r="K89" t="s">
+        <v>730</v>
+      </c>
+      <c r="L89" t="s">
+        <v>731</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>723</v>
+      </c>
+      <c r="O89" t="s">
+        <v>111</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>733</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>734</v>
+      </c>
+      <c r="J90" t="s">
+        <v>735</v>
+      </c>
+      <c r="K90" t="s">
+        <v>736</v>
+      </c>
+      <c r="L90" t="s">
+        <v>737</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>738</v>
+      </c>
+      <c r="O90" t="s">
+        <v>174</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>740</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>741</v>
+      </c>
+      <c r="J91" t="s">
+        <v>742</v>
+      </c>
+      <c r="K91" t="s">
+        <v>743</v>
+      </c>
+      <c r="L91" t="s">
+        <v>744</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>745</v>
+      </c>
+      <c r="O91" t="s">
+        <v>111</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>746</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>747</v>
+      </c>
+      <c r="J92" t="s">
+        <v>748</v>
+      </c>
+      <c r="K92" t="s">
+        <v>749</v>
+      </c>
+      <c r="L92" t="s">
+        <v>750</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>751</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>752</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>753</v>
+      </c>
+      <c r="J93" t="s">
+        <v>754</v>
+      </c>
+      <c r="K93" t="s">
+        <v>755</v>
+      </c>
+      <c r="L93" t="s">
+        <v>756</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>751</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>757</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>758</v>
+      </c>
+      <c r="J94" t="s">
+        <v>759</v>
+      </c>
+      <c r="K94" t="s">
+        <v>760</v>
+      </c>
+      <c r="L94" t="s">
+        <v>761</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>762</v>
+      </c>
+      <c r="O94" t="s">
+        <v>86</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>764</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>765</v>
+      </c>
+      <c r="J95" t="s">
+        <v>759</v>
+      </c>
+      <c r="K95" t="s">
+        <v>766</v>
+      </c>
+      <c r="L95" t="s">
+        <v>767</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>762</v>
+      </c>
+      <c r="O95" t="s">
+        <v>86</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>768</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>769</v>
+      </c>
+      <c r="J96" t="s">
+        <v>770</v>
+      </c>
+      <c r="K96" t="s">
+        <v>771</v>
+      </c>
+      <c r="L96" t="s">
+        <v>772</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>762</v>
+      </c>
+      <c r="O96" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>773</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>774</v>
+      </c>
+      <c r="J97" t="s">
+        <v>775</v>
+      </c>
+      <c r="K97" t="s">
+        <v>776</v>
+      </c>
+      <c r="L97" t="s">
+        <v>777</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>762</v>
+      </c>
+      <c r="O97" t="s">
+        <v>111</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>779</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>780</v>
+      </c>
+      <c r="J98" t="s">
+        <v>781</v>
+      </c>
+      <c r="K98" t="s">
+        <v>782</v>
+      </c>
+      <c r="L98" t="s">
+        <v>783</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>784</v>
+      </c>
+      <c r="O98" t="s">
+        <v>86</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>785</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>786</v>
+      </c>
+      <c r="J99" t="s">
+        <v>787</v>
+      </c>
+      <c r="K99" t="s">
+        <v>788</v>
+      </c>
+      <c r="L99" t="s">
+        <v>789</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>790</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>791</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>792</v>
+      </c>
+      <c r="J100" t="s">
+        <v>793</v>
+      </c>
+      <c r="K100" t="s">
+        <v>794</v>
+      </c>
+      <c r="L100" t="s">
+        <v>795</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>796</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>797</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>798</v>
+      </c>
+      <c r="J101" t="s">
+        <v>799</v>
+      </c>
+      <c r="K101" t="s">
+        <v>800</v>
+      </c>
+      <c r="L101" t="s">
+        <v>801</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>802</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>803</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>804</v>
+      </c>
+      <c r="J102" t="s">
+        <v>805</v>
+      </c>
+      <c r="K102" t="s">
+        <v>806</v>
+      </c>
+      <c r="L102" t="s">
+        <v>807</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>802</v>
+      </c>
+      <c r="O102" t="s">
+        <v>111</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>808</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>809</v>
+      </c>
+      <c r="J103" t="s">
+        <v>810</v>
+      </c>
+      <c r="K103" t="s">
+        <v>811</v>
+      </c>
+      <c r="L103" t="s">
+        <v>812</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>802</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>813</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>814</v>
+      </c>
+      <c r="J104" t="s">
+        <v>815</v>
+      </c>
+      <c r="K104" t="s">
+        <v>816</v>
+      </c>
+      <c r="L104" t="s">
+        <v>817</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>61056</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>818</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>819</v>
+      </c>
+      <c r="J105" t="s">
+        <v>820</v>
+      </c>
+      <c r="K105" t="s">
+        <v>821</v>
+      </c>
+      <c r="L105" t="s">
+        <v>822</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>823</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>
